--- a/Language-Identification-in-songs/Chara-Based-Model/combined_normalized_text.xlsx
+++ b/Language-Identification-in-songs/Chara-Based-Model/combined_normalized_text.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Langauges</t>
+          <t>languages</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -461,62 +461,92 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>Languages</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>,</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>F</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>H</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>I</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>K</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -549,7 +579,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['AR', 'FR', 'EN']</t>
+          <t>AR,FR,EN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -563,8 +593,10 @@
           <t>in the heart of the city under a clouded sky battles raging within as the world passes by dreams like glass shattered and strewn echoes of laughter now silent at noon في الظلام هناك نور ينتظر أن يتفتح قوة في القلب تزدهر في كل خطوة espoir dans chaque souffle amour dans chaque mot أحلامنا تحلق عاليا فوق السحاب la lumière nous guide نحو الأمل dans les rues silencieuses je trouve ma force cherchant la paix dans ce chaos de course chaque pas en avant un pas vers la lumière dans mon coeur une flamme un esprit de guerrière we rise à travers les orages أيدي متحدة in our song الفجر يبزغ hope reborn from the ashes in every belief with every challenge نواجهه nous le surmontons our spirits free as the wind forever strong espoir dans chaque souffle amour dans chaque mot أحلامنا تحلق عاليا فوق السحاب la lumière nous guide نحو الأمل ensemble معا together our hearts aglow</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['AR', 'FR', 'EN']</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -573,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -594,9 +626,27 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -631,7 +681,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['AR', 'FR', 'EN']</t>
+          <t>AR,FR,EN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -645,8 +695,10 @@
           <t>beneath the starless night in the cold embrace walking through shadows losing the race tears like rivers carving a path in the silence of the night feeling the aftermath في كل دمعة قصة تروي قوة الإرادة الأمل ينبت في الصحراء ينمو في الصعاب chants d'espoir dans le vent échos de nos cœurs نتحدى العاصفة بقوة الأحلام dans l'obscurité نجد النور sur ce chemin solitaire je trouve ma voix dans la nuit qui s'éclaircit je fais mon choix chaque épreuve un pas vers mon destin dans cette quête je trouve mon chemin معا face à la peur hearts beating en harmonie l'aube chuchote new beginnings from the struggles we wrote against the tide نقاوم  nous luttons our journey a melody under the sun chants d'espoir dans le vent échos de nos cœurs نتحدى العاصفة بقوة الأحلام dans l'obscurité نجد النور united in hope متحدون في الأمل</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['AR', 'FR', 'EN']</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -655,16 +707,16 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -676,9 +728,27 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -713,7 +783,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['AR', 'FR', 'EN']</t>
+          <t>AR,FR,EN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -727,8 +797,10 @@
           <t>in the whisper of the rain on the broken street holding onto dreams feeling incomplete walls closing in a maze with no end crying out for the light on hope to depend في الصعب نجد القوة في الألم نبني الأمل الغد أفضل نرسمه بأرواحنا avec chaque épreuve une nouvelle force في قلوبنا أغنية الحياة la lumière brille نجدها في الظلام dans le silence de la nuit je trouve ma vérité face aux tempêtes je garde ma dignité chaque pas une danse avec le destin dans la solitude je trouve mon chemin echoes of hope through the darkness موحدين dans notre lutte le matin se brise with the promise of renewal in our cries نعبر العاصفة our voices a symphony in the quest we set avec chaque épreuve une nouvelle force في قلوبنا أغنية الحياة la lumière brille نجدها في الظلام together we embrace the day</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['AR', 'FR', 'EN']</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -737,16 +809,16 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -758,9 +830,27 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -794,7 +884,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['AR', 'FR', 'EN']</t>
+          <t>AR,FR,EN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -808,8 +898,10 @@
           <t>in the darkest of nights under a moonless sky lost in the void asking ourselves why in the depths of despair we search for a way a flicker of hope to guide us today في الظلام تشع النجوم تنير الدروب الصمود في قلوبنا نحمل الأمل espoir dans nos âmes une flamme qui brille الحلم يصنع طريقه يشدنا نحو السماء dans l'obscurité نجد النجوم sur ce chemin incertain je trouve ma voix dans le silence de l'âme je fais mon choix chaque épreuve une pierre pour mon château dans ce voyage je découvre mon bateau nous restons unis in the face of adversity أقلوب متشابكة in unity lorsque le soleil se lève new horizons ahead in our hearts we believe through the trials نتجاوز التحديات our story a testament to the strength we achieve espoir dans nos âmes une flamme qui brille الحلم يصنع طريقه يشدنا نحو السماء dans l'obscurité نجد النجوم together our spirits unite</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['AR', 'FR', 'EN']</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -818,16 +910,16 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -839,9 +931,27 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -883,7 +993,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['AR', 'FR', 'EN']</t>
+          <t>AR,FR,EN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -897,8 +1007,10 @@
           <t>in the heart of the city under a clouded sky walls closing in life's a maze can't deny battles fought in silence a relentless fight dreams overshadowed by the chill of the night في عمق الليل نجمة تلمع بعيدة تهمس لي بصوت الأمل المتجدد قوة تنمو بداخلي أقاوم في قلبي نار لا تنطفئ تدفئني espoir et courage dans mes veines coulent يدا بيد نحو الغد نسير la lumière de l'aube efface les ombres في كل خطوة نتحدى المصاعب dans le miroir de mes pensées je vois un guerrier armé de volonté dans le reflet un avenir plus clair chaque cicatrice une histoire de résilience chantant en silence la mélodie de la persévérance through the storm نعبر la mer des défis uniting our voices في انسجام espérance حلم  and freedom intertwined dans nos cœurs نجد الضوء forever enshrined back to where it all began but not the same every struggle chaque douleur shaped my name in my heart يسكن الأمل with strength anew guided by dreams sous un ciel bleu so true espoir et courage plus forts que jamais يدا بيد avec la foi nous triomphons la lumière brille éclairant notre chemin ensemble معا we embrace the dawn's warm grin dans l'unité نجد القوة hope espoir أمل forever our song's length</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['AR', 'FR', 'EN']</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -907,16 +1019,16 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -928,9 +1040,27 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +1101,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['ES', 'KO', 'DE']</t>
+          <t>ES,KO,DE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -985,23 +1115,25 @@
           <t>en el alba partimos con sueños en la mochila caminos desconocidos el mundo es nuestra pista el sol besa las montañas la brisa nos invita vamos juntos compañeros en esta danza infinita die sterne leiten uns in der nacht so klar und hell das herz voller vorfreude klopft schnell oh so schnell jedes lied des windes ruft uns zu neuen ufern wir sind bereit zu fliegen die segel sind gehoben 세상의 끝까지 wir reisen durch die zeit 새로운 발견 freiheit glück so weit 함께라면 jeder schritt ist neu 모험의 노래를 부르며 im licht der morgentau 모르는 길 위에서 가슴이 뛰어요 낯선 하늘 아래 새로운 꿈을 꿔요 푸른 바다를 건너 숲속을 헤매어 매 순간이 빛나는 이 여행의 선물 aventuras sin fin abenteuer warten dort 손에 손을 잡고 juntos schritt für schritt cada cultura sprache 색깔이 다른 세상 entdecken wir zusammen en esta canción en cada rincón del mundo 새 이야기를 들려요 속삭이는 바람 nos trae canciones de ayer juntos en este viaje 매 순간이 즐거워 exploramos corazones bajo el cielo estrellado 세상의 끝까지 bis ans ende der zeit 새로운 발견 freiheit en la eternidad 함께라면 jeder schritt ist neu 모험의 노래를 부르며 im licht der morgentau zusammen gehen wir weiter en esta danza sin fin</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['ES', 'KO', 'DE']</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1010,15 +1142,33 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,7 +1208,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['ES', 'KO', 'DE']</t>
+          <t>ES,KO,DE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1072,23 +1222,25 @@
           <t>en la diversidad encontramos nuestra fuerza amigos de todo el mundo nuestra unión es inmensa bajo un mismo sol compartiendo sueños juntos enfrentamos lo que venga sin dueños die welt ist groß doch unsere herzen sind nah freundschaft ist die brücke die uns verbindet hurra gemeinsam gehen wir durch sturm und wind in dieser freundschaft finden wir was uns verbindet 우리는 amigos freunde fürs leben 함께 갈 수 있어 in glück und leid 눈에 보이지 않는 aber tief in unserem herz wir sind vereint für immer und ewig 그것은 kunst 각자의 이야기 다양한 색깔의 꿈 우리의 다양성 세상에 빛을 더함 친구들과 함께 어둠을 밝혀요 우리의 손을 잡고 새로운 길로 나아가요 amistad freundschaft 우리의 링크 모두 함께 für eine bessere welt think 언어의 장벽 der unterschied im blick wir überwinden alles gemeinsam sind wir stark nicht sick en cada abrazo en cada risa compartida 우리는 가족 어디에서든 가까이에 사랑으로 con amor 우리가 빛나요 amigos para siempre para siempre juntos 이건 우리의 꿈 우리는 amigos freunde fürs leben 함께 갈 수 있어 in glück und leid 눈에 보이지 않는 aber tief in unserem herz wir sind vereint für immer und ewig 그것은 kunst zusammen sind wir stark en esta canción</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['ES', 'KO', 'DE']</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1097,15 +1249,33 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1145,7 +1315,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['ES', 'KO', 'DE']</t>
+          <t>ES,KO,DE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1159,23 +1329,25 @@
           <t>en la oscuridad encontramos nuestra luz desafiando tormentas somos fuertes tú y yo las lágrimas secan el dolor se va juntos enfrentamos todo en la noche y el día die welt mag manchmal kalt sein und der weg steil doch unsere herzen brennen wir geben nicht auf kein spiel die stürme mögen toben doch wir bleiben stark in dieser reise des lebens finden wir unseren mark 겨울이 와도 wir trotzen dem sturm 함께 있으면 wir brechen nie zusammen nie verlorn 어둠을 뚫고 das licht am ende sehen 우리는 강해져 durch jede prüfung gehen 어떤 어려움도 우리를 막을 순 없어 힘들어도 포기하지 않아 그건 우리의 맹세 하늘에 별이 빛나듯 우리도 계속 빛날게 빛과 어둠을 함께 우리의 이야기를 쓸게 la vida nos desafía das leben ist hart aber zusammen sind wir stark 그래서 우린 smart el coraje en nuestros corazones die hoffnung in unserem blick wir halten zusammen 모든 것을 überstehen bit by bit cada cicatriz en la piel es una historia que contar 각각의 상처 우리의 인내와 힘의 흔적이야 la vida puede ser un laberinto pero juntos encontramos el camino 우리의 꿈을 따라 항상 함께하며 이 세상을 바라봐 겨울이 와도 wir trotzen dem sturm 함께 있으면 wir brechen nie zusammen nie verlorn 어둠을 뚫고 das licht am ende sehen 우리는 강해져 durch jede prüfung gehen</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['ES', 'KO', 'DE']</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1184,15 +1356,33 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1231,7 +1421,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['ES', 'KO', 'DE']</t>
+          <t>ES,KO,DE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1245,23 +1435,25 @@
           <t>bajo el cielo infinito el viento nos guiará un camino sin fronteras la aventura comenzará nuestros corazones libres sin cadenas que atan exploramos el mundo con sueños que desatan die welt ist weit doch wir sind bereit freiheit ist unser kompass in dieser zeit keine mauern halten uns zurück auf der suche nach freiheit unser glück 자유로운 날개로 wir fliegen in die ferne 새로운 세계 감각은 wie ein stern 끝없는 모험 우리는 함께 freiheit ist unser lied 우리의 노래 험난한 길 위에서 우리의 발자취 별들이 우리를 인도 우리의 꿈의 미래 새로운 경험 무한한 가능성 자유로운 영혼으로 세상을 탐험해 la libertad es el tesoro die freiheit unser ziel 여기저기 떠나며 우리의 모험길 durch wüsten und wälder 바다와 하늘 같이 함께 우리는 unbezwingbar en cada rincón del planeta 새로운 친구를 만나 언어의 장벽 없이 우리는 하나 unidos en diversidad 색다른 경험 자유와 용기로 우리의 삶을 만들어가 자유로운 날개로 wir fliegen in die ferne 새로운 세계 감각은 wie ein stern 끝없는 모험 우리는 함께 freiheit ist unser lied 우리의 노래</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['ES', 'KO', 'DE']</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1270,15 +1462,33 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1317,7 +1527,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['ES', 'KO', 'DE']</t>
+          <t>ES,KO,DE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1331,23 +1541,25 @@
           <t>bajo la luna brillante te encontré en mi camino tus ojos como estrellas un amor divino el fuego en mi pecho arde con pasión juntos en esta noche el mundo es nuestra canción die zeit verlangsamt sich wenn du hier bist deine liebe ist mein licht du fehlst mir ich weiß es die welt wird still wenn wir uns berühren in diesem augenblick möchte ich dich verführen 내 마음은 brennt wie ein feuer so heiß 당신을 사랑해 ich sage es leise 눈이 감기면 dein gesicht ich seh' liebe und leidenschaft 우리의 스토리 이야기의 끝 밤하늘의 별빛 우리의 사랑을 비춰 서로에게 미치게 우리의 마음이 불타요 손을 잡으면 우리의 세계가 번져 in dieser liebe finden wir was wir begehren la pasión nos guía die leidenschaft brennt 우리의 사랑 우리의 moment die nacht gehört uns 함께 쓰는 이야기 en este amor ardiente encontramos la gloria cada beso robado cada suspiro en la piel 우리의 사랑 끝이 없는 축제 흔들리는 맘 새로운 세계로 두 마음이 춤을 춰 우리의 노래 속 내 마음은 brennt wie ein feuer so heiß 당신을 사랑해 ich sage es leise 눈이 감기면 dein gesicht ich seh' liebe und leidenschaft 우리의 스토리 이야기의 끝</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['ES', 'KO', 'DE']</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1356,15 +1568,33 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1404,7 +1634,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['RU', 'HI', 'EN']</t>
+          <t>RU,HI,EN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1418,8 +1648,10 @@
           <t>под сиянием звёзд начинается путь светлое приключение зовёт вдаль мы мчитесь сквозь туман где мечты сбываются каждый шаг в неизведанное - радость и страх हर पल म नई उमग दल म हलचल सहसक करनम क यह सफर अदभत ह आओ चल अनजन म जह सब कछ नय ह discovering worlds where dreams and reality blend नए रग नए खवब हर दश म खज क जशन with every sunrise a new story unfolds celebrating the quest in every direction colors and dreams so bold across the seas under the foreign skies uncharted lands where mysteries lie the thrill of the unknown the wind in our sails every corner of the world a tale that never fails звёзды путеводные नई दशओ क ओर guiding lights в каждом сердце - искра खज क आग a burning desire in the fusion of journeys cultures entwine путешествие в мир जह सपन सच हत ह where dreams align в каждой улыбке in every shared tale найденные друзья and bonds that prevail joy in the little things в простых моментах смех и песни laughter and songs that enhance discovering worlds where dreams and reality blend नए रग नए खवब हर दश म खज क जशन every sunrise brings a story anew सहस और खज म in courage and search we grew हर कदम पर नई खज नई उममद with every step new discoveries new hopes convene</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['RU', 'HI', 'EN']</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1440,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1452,6 +1684,24 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1491,7 +1741,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['RU', 'HI', 'EN']</t>
+          <t>RU,HI,EN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1505,8 +1755,10 @@
           <t>в сердце мира любовь как песня звучит в каждом уголке земли она светит и живет разные лица но чувства одни и те же любовь объединяет нас в единстве наша сила इस धरत पर सब मलकर गत पयर क गए ससकतय क मलन स नय इतहस बनए दल क करब आन एकत क जशन मनए in every language love speaks the same दल क धडकन the heartbeat the same hand in hand across lands and seas सथ मलकर together in harmony we're free from the snowy peaks to the sun-kissed shores love's language resonates opens every door embracing differences celebrating similarities in love we find our shared humanities сердца соединены दल क सगम hearts entwined разные миры एक सपन one dream we find in unity's dance cultures merge and shine любовь без границ पयर क बल love's universal sign через горы и моря through trials and time любовь нас ведет love leads us in our prime in every smile в каждом взгляде we see love's power в силе единства unafraid in every language love speaks the same दल क धडकन the heartbeat the same hand in hand across lands and seas सथ मलकर together in harmony we're free पयर क एक धन one melody of love bringing the world together under the stars above</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['RU', 'HI', 'EN']</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1527,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1539,6 +1791,24 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,7 +1848,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['RU', 'HI', 'EN']</t>
+          <t>RU,HI,EN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1592,8 +1862,10 @@
           <t>когда тучи сгущаются над нами мы находим свет в самом сердце тьмы в каждом испытании в каждом бедствии надежда ведёт нас даря силы вновь अधर म भ रशन क करण हर मनन क नह यह जवन क चलन सघरष म भ आश क दप जल rising above through the storm we soar उममद क पख hopes take flight once more in the face of the night our spirits shine bright आशए हमर guiding us with their light through the valleys of shadow and doubt our courage sings loud and stout each step forward a testament of our will in the heart of hardship hope lingers still сильнее каждого испытания आशओ क आवज the voice of hope rings верим что после ночи नय सवर आएग a new dawn it brings in unity we find our resilience’s song вместе мы сильны सथ म ह हम together we belong в каждой улыбке in every tear that falls мы видим жизнь life echoes through these walls through despair and joy в радости и беде we find our path наш путь к свету we see rising above through the storm we soar उममद क पख hopes take flight once more in the night's embrace our spirits shine bright आशए हमर guiding us with their light together we stand एकजटत म शकत in unity’s strength our future's script we write</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['RU', 'HI', 'EN']</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1614,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1626,6 +1898,24 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1664,7 +1954,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['RU', 'HI', 'EN']</t>
+          <t>RU,HI,EN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1678,8 +1968,10 @@
           <t>под широким небом где звёзды блестят ярко где реки плещут в лесах птицы поют в каждом лепестке в каждом луче солнца природа творит чудеса в сердце земли живёт परकत क इस खबसरत म हर रग हर आवज म छप ह रज पड क शख स बहत हव धरत क हर कन बलत ह अपन कहन in the dance of the leaves the whisper of the wind परकत क नतय nature's own spin from the mountains high to the ocean's deep blue सदरय क एक कहन a story of beauty so true beneath the canopy of stars across the open fields nature's canvas unravels its beauty it yields each flower each stone a piece of art in nature's gallery each plays its part в каждой капле росы नद क हर लहर म in every wave of the river животные играют परकत क रग the colors of nature thrive in the symphony of life we all find our tune в гармонии с природой सगत क सफर a journey so divine с каждым закатом with every dawn's light природа раскрывает свой великий мир nature's delight in the rustling leaves в тихом шепоте ветра we hear nature's song её вечную песню ever so clear in the dance of the leaves the whisper of the wind परकत क नतय nature's own spin from mountains high to the deep blue sea सदरय क एक कहन a tale of beauty forever to be</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['RU', 'HI', 'EN']</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1700,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1712,6 +2004,24 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1751,7 +2061,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['RU', 'HI', 'EN']</t>
+          <t>RU,HI,EN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1765,8 +2075,10 @@
           <t>bajo la luna brillante te encontré en mi camino tus ojos como estrellas un amor divino el fuego en mi pecho arde con pasión juntos en esta noche el mundo es nuestra canción die zeit verlangsamt sich wenn du hier bist deine liebe ist mein licht du fehlst mir ich weiß es die welt wird still wenn wir uns berühren in diesem augenblick möchte ich dich verführen 내 마음은 brennt wie ein feuer so heiß 당신을 사랑해 ich sage es leise 눈이 감기면 dein gesicht ich seh' liebe und leidenschaft 우리의 스토리 이야기의 끝 밤하늘의 별빛 우리의 사랑을 비춰 서로에게 미치게 우리의 마음이 불타요 손을 잡으면 우리의 세계가 번져 in dieser liebe finden wir was wir begehren la pasión nos guía die leidenschaft brennt 우리의 사랑 우리의 moment die nacht gehört uns 함께 쓰는 이야기 en este amor ardiente encontramos la gloria cada beso robado cada suspiro en la piel 우리의 사랑 끝이 없는 축제 흔들리는 맘 새로운 세계로 두 마음이 춤을 춰 우리의 노래 속 내 마음은 brennt wie ein feuer so heiß 당신을 사랑해 ich sage es leise 눈이 감기면 dein gesicht ich seh' liebe und leidenschaft 우리의 스토리 이야기의 끝</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['RU', 'HI', 'EN']</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1787,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1799,6 +2111,24 @@
         <v>1</v>
       </c>
       <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1839,7 +2169,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['PT', 'ES', 'EN']</t>
+          <t>PT,ES,EN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1853,8 +2183,10 @@
           <t>nas asas da manhã a aventura começa rumo ao desconhecido coração cheio de promessa cada passo uma nova história sob um céu de infinitas cores navegamos mares desconhecidos descobrindo novos amores la emoción crece cada momento una revelación ante nosotros un mundo de maravillosas creaciones corazones palpitando al ritmo de esta exploración listos para sumergirnos en mágicas sensaciones discovering lands where dreams take flight donde el sol brilla más brillante under the moonlight every corner of the world a new story to tell en cada sonrisa in every farewell through the whispers of the jungles and the deserts' silent song each journey a melody where our hearts truly belong the thrill of the unknown the joy of the unseen in every shadow and light we find what adventure means em cada desafio en cada nueva prueba in every trial we face a beleza do mundo la belleza del mundo the world's embrace in the dance of cultures languages intertwine onde cada caminho nos leva a um destino divino com cada nova aurora with each new day's light novas histórias se desdobram in our sight joy in every discovery na alegria de explorar finding ourselves encontrando nosso lugar discovering lands where dreams take flight donde el sol brilla más brillante under the moonlight every corner of the world a new story to tell en cada sonrisa in every farewell explorando sin fin in this endless quest en cada paso we find our best</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['PT', 'ES', 'EN']</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1863,13 +2195,13 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1881,12 +2213,30 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1925,7 +2275,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['PT', 'ES', 'EN']</t>
+          <t>PT,ES,EN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1939,8 +2289,10 @@
           <t>no silêncio da noite sob a luz do luar o amor sussurra histórias em um doce olhar em cada gesto pequeno um universo a revelar nas estrelas nossos sonhos começam a dançar en cada suspiro una promesa nace el corazón canta en la distancia que nos abrace manos entrelazadas en un destino compartido el amor nos guía en un viaje sin olvido in this dance of hearts across the miles donde quiera que estés love defies the trials under the same sky our souls connect en cada palabra in every aspect from the rolling hills to the bustling city streets our love story echoes where every culture meets in the language of the heart no barriers to be found in love's melody our hearts are bound nas melodias do amor en las melodías del amor in love's tune cada olhar cada toque is a shared boon in the fusion of our souls cultures blend and shine em cada sorriso en cada caricia love's design com cada amanhecer with each new day's light nosso amor renasce shining so bright in the warmth of our embrace no distance too far em cada momento in every moment there we are in this dance of hearts across the miles donde quiera que estés love defies the trials under the same sky our souls intertwine en cada sueño in every line</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['PT', 'ES', 'EN']</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1949,13 +2301,13 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1967,12 +2319,30 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2011,7 +2381,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['PT', 'ES', 'EN']</t>
+          <t>PT,ES,EN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2025,8 +2395,10 @@
           <t>nas cores da manhã a vida se desenha risos e cantos enchem o ar em cada pequena façanha cada momento um presente um milagre a celebrar na dança do dia a vida a brilhar en cada sonrisa una fiesta de emociones la vida es un canto lleno de colores y canciones manos al cielo corazones abiertos celebramos juntos nuestros descubrimientos celebrate the moments big and small en cada paso life’s a carnival joy in the journey love in the air en cada mirada everywhere from the laughter of children to the wisdom of age life's a book and every day's a new page in simple pleasures we find our greatest treasure in each heartbeat life’s measure em cada abraço en cada abrazo in every embrace a vida nos ensina la vida nos enseña life's grace in the unity of moments joy’s sweet song no sorriso compartilhado where we all belong com a luz do entardecer with the evening's glow reflectimos sobre a beleza and all we know in each shared story em cada risada we find life’s glory a journey unmatched celebrate the moments big and small en cada paso life’s a carnival joy in the journey love in the air en cada rincón love to share</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['PT', 'ES', 'EN']</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2035,13 +2407,13 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2053,12 +2425,30 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2097,7 +2487,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['PT', 'ES', 'EN']</t>
+          <t>PT,ES,EN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2111,8 +2501,10 @@
           <t>nasce um novo dia cheio de mistério com o mapa na mão parto no desafio caminhos sem fim horizontes a descobrir neste mundo vasto a aventura vou seguir en cada paso un sueño se ilumina la emoción crece el corazón palpita bajo el cielo azul mi espíritu vuela libre en busca de lo desconocido la vida me invita sailing across the open sea navegando voy new horizons nuevos destinos a encontrar each sunrise brings a brand new story viviendo cada momento ready to explore pelos caminhos do mundo en cada esquina a beleza se revela life's a canvas full of color cada cultura cada sorriso brings us closer na viagem da vida somos exploradores no ritmo das cidades in the calm of nature descobertas me aguardam in every new venture a alegria do desconhecido the joy of surprise neste mosaico do mundo our spirits rise sailing across the open sea navegando voy new horizons nuevos destinos a encontrar each sunrise brings a brand new story viviendo cada momento ready to explore en cada rincón del mundo una historia se escribe con cada paso mi alma se engrandece el espíritu de aventura en mi corazón vive explorando siempre en el viaje que nunca cesa</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['PT', 'ES', 'EN']</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2121,13 +2513,13 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2139,12 +2531,30 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2187,7 +2597,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['PT', 'ES', 'EN']</t>
+          <t>PT,ES,EN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2201,8 +2611,10 @@
           <t>largando as amarras rumo ao horizonte em cada maré um novo monte o mundo me chama não posso resistir nas asas do vento começo a partir cada ciudad un nuevo comienzo la aventura me susurra en el silencio en cada calle un misterio por descubrir la vida es un viaje y estoy listo para ir sailing the seas sailing the dreams en aguas profundas discovering lands under foreign suns bajo lunas redondas each moment a treasure cada paso una canción adventure's in my heart it's where i belong through ancient ruins in bustling streets every corner of the world where culture greets the thrill of the new in every sight and sound in the book of the world new chapters are found na dança das ondas en la brisa del mar finding my path following a distant star cada experiência a new piece of the puzzle en este viaje life's vibrant hustle nas histórias contadas under foreign skies novas amizades where laughter lies the joy of discovery in every new face in this journey of life every step is grace sailing the seas sailing the dreams en aguas profundas discovering lands under foreign suns bajo lunas redondas each moment a treasure cada paso una canción adventure's in my heart it's where i belong en cada aventura un nuevo aprender la vida se despliega hay tanto que ver con cada amanecer mi alma se renueva en el viaje de la vida cada día es una prueba</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>['PT', 'ES', 'EN']</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2211,13 +2623,13 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2229,12 +2641,30 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2277,7 +2707,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['FR', 'IT', 'EN']</t>
+          <t>FR,IT,EN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2291,8 +2721,10 @@
           <t>sur le chemin de l'aventure sous un ciel étoilé le monde nous appelle nos cœurs sont alliés chaque pas un tableau peint de rêves dorés dans ce voyage nos âmes sont guidées con ogni respiro un'emozione nasce l'anticipazione cresce come un fiume in corsa sotto la luna il nostro cammino si abbraccia verso l'ignoto dove la vita scorre audace discovering worlds scoprendo verità in each new land una nuova libertà with every sunrise un nuovo inizio embracing life abbracciando il destino across the oceans through the wilds under the sun every new horizon a new adventure begun the thrill of the unknown calling loud and clear in this journey of discovery everything's near dans le souffle du vent nel susurro delle foglie finding our path trouvant notre voie chaque culture ogni storia a new chapter unfolds in this dance of life la danza delle mondi dans les rues animées under starlit skies nouvelles rencontres new bonds arise la joie de découvrir in every shared smile in this tapestry of life chaque moment vaut la peine discovering worlds scoprendo verità in each new land una nuova libertà with every sunrise un nuovo inizio embracing life abbracciando il destino in ogni passo una storia si scrive nel viaggio della vita ogni esperienza vive con coraggio nel cuore l'orizzonte chiama nella grande avventura ogni anima si infiamma</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>['FR', 'IT', 'EN']</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2304,27 +2736,45 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2367,7 +2817,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['FR', 'IT', 'EN']</t>
+          <t>FR,IT,EN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2381,8 +2831,10 @@
           <t>dans le jardin de l'amour les fleurs commencent à fleurir chaque regard chaque sourire fait battre le cœur sous le ciel étoilé l'amour nous invite à danser dans ce ballet de sentiments nos âmes se lient in ogni sguardo una promessa nasconde la passione arde come una stella che risponde mani intrecciate in un viaggio senza fine l'amore ci chiama in una danza divina in this dance of love in questa danza d'amore two hearts beat as one due cuori in un battito in every embrace in ogni abbraccio sentito we find our universe nel nostro universo infinito through the whispers of the night in the laughter of the day love's melody plays in an enchanting ballet in your eyes i find my stars in your arms my home in the rhythm of love we're never alone dans chaque mot doux in ogni carezza love's language speaks l'amour confesse each moment shared ogni momento condiviso builds our forever notre éternel paradiso sous la lune under the sun's warm embrace chaque baiser every touch a tender grace in this journey of love dans ce voyage d'amour every day is a gift chaque jour un nouveau jour in this dance of love in questa danza d'amore two hearts beat as one due cuori in un battito in every embrace in ogni abbraccio sentito we find our universe nel nostro universo infinito in ogni risata in ogni lacrima spartita l'amore ci guida in una vita condivisa mano nella mano con te ogni passo nel viaggio dell'amore ogni momento è un abbraccio</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['FR', 'IT', 'EN']</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2394,27 +2846,45 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2490,7 +2960,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['FR', 'IT', 'EN']</t>
+          <t>FR,IT,EN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2504,8 +2974,10 @@
           <t>sur le chemin de la vie chaque pas un apprentissage dans le miroir du temps je vois mon visage chaque défi une chance de grandir dans cette quête de soi j'apprends à devenir in ogni sfida una lezione da imparare nel viaggio dell'anima c'è sempre più da scoprire con ogni battito mi avvicino alla verità nella ricerca di me trovo la mia libertà growing stronger every day crescendo ogni giorno in the mirror of life nello specchio della vita finding my way trovando la mia via in this journey of self in questo viaggio di me from the shadows of doubt to the light of clarity each step a chapter in my own narrative discovering the depths exploring the heights in the story of me finding new sights dans les moments de joie in momenti di dolore learning to be imparando ad essere chaque rire ogni lacrima a piece of the puzzle in this journey of growth in questo cammino di scoperta avec chaque aurore with every setting sun je découvre qui je suis what i can become in the dance of life dans la danse de la vie every moment chaque instant a discovery growing stronger every day crescendo ogni giorno in the mirror of life nello specchio della vita finding my way trovando la mia via in this journey of self in questo viaggio di me in ogni risveglio una nuova possibilità di vedere chi sono in un mondo di verità crescendo dentro con ogni esperienza nel viaggio di me trovo la mia essenza sur le chemin de la vie chaque pas un apprentissage dans le miroir du temps je vois mon visage chaque défi une chance de grandir dans cette quête de soi j'apprends à devenir in ogni sfida una lezione da imparare nel viaggio dell'anima c'è sempre più da scoprire con ogni battito mi avvicino alla verità nella ricerca di me trovo la mia libertà growing stronger every day crescendo ogni giorno in the mirror of life nello specchio della vita finding my way trovando la mia via in this journey of self in questo viaggio di me from the shadows of doubt to the light of clarity each step a chapter in my own narrative discovering the depths exploring the heights in the story of me finding new sights dans les moments de joie in momenti di dolore learning to be imparando ad essere chaque rire ogni lacrima a piece of the puzzle in this journey of growth in questo cammino di scoperta avec chaque aurore with every setting sun je découvre qui je suis what i can become in the dance of life dans la danse de la vie every moment chaque instant a discovery growing stronger every day crescendo ogni giorno in the mirror of life nello specchio della vita finding my way trovando la mia via in this journey of self in questo viaggio di me in ogni risveglio una nuova possibilità di vedere chi sono in un mondo di verità crescendo dentro con ogni esperienza nel viaggio di me trovo la mia essenza</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>['FR', 'IT', 'EN']</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2517,27 +2989,45 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2580,7 +3070,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['FR', 'IT', 'EN']</t>
+          <t>FR,IT,EN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2594,8 +3084,10 @@
           <t>dans le silence de la nuit l'espoir murmure doucement face aux épreuves de la vie on trouve la force en dedans chaque larme une leçon dans l'obscurité une lumière dans la quête de l'horizon l'espoir est notre frontière in ogni dolore c'è una speranza che brilla nel cuore della notte una stella che scintilla con ogni passo affrontiamo la tempesta nella speranza troviamo la nostra festa rising up rising strong alzandoci con forza in the face of the dark nella faccia dell'oscurità holding on to hope tenendo la speranza we find our way troviamo la nostra strada through the trials and the storms we walk with courage in our heart every challenge a chance to make a brand new start in the echoes of despair we find a resilient song with hope as our compass we know we belong dans chaque défi in ogni sfida a ray of light finding strength trouvant la force in the darkest night chaque pas ogni passo a journey of the soul in this dance of life in questa danza we are whole sous les étoiles under the moon's gentle gaze nous trouvons la voie in the maze of our days hope guiding us l'espoir nous guidant through every night and day in the symphony of life dans la symphonie we find our way rising up rising strong alzandoci con forza in the face of the dark nella faccia dell'oscurità holding on to hope tenendo la speranza we find our way troviamo la nostra strada con ogni alba una nuova promessa nasce nel cammino della vita la speranza mai si tace camminando insieme con la luce nel cuore nella speranza troviamo il nostro amore</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>['FR', 'IT', 'EN']</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2607,27 +3099,45 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2671,7 +3181,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['FR', 'IT', 'EN']</t>
+          <t>FR,IT,EN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2685,8 +3195,10 @@
           <t>dans le jardin de la vie les couleurs dansent sous le ciel chaque fleur un poème chaque brise un arc-en-ciel dans la symphonie de la nature notre cœur trouve son refrain dans cette célébration de la vie nous sommes le soleil et la pluie in ogni piccola cosa una bellezza da scoprire nel canto degli uccelli una melodia per vivere ogni momento un capolavoro dipinto dalla vita nella gioia del mondo troviamo la nostra rita embracing the beauty abbracciando la bellezza in life's vibrant dance nella danza vivace della vita every moment a treasure ogni attimo un tesoro in this world of wonders in questo mondo di meraviglie from the mountain's majesty to the ocean's deep blue grace every sunrise a masterpiece in time and space in the laughter of the rivers in the quiet of the night life's beauty surrounds us in every sound and sight dans le souffle du vent nel sussurro del mare feeling life's pulse sentendo il polso della vita chaque étoile ogni fiore a story to be told in the tapestry of life nel tessuto della vita we behold sous le ciel étoilé under the moon's gentle glow nous célébrons la vie with every heartbeat's flow in the dance of the seasons dans la danse des saisons life's beauty unfolds la beauté de la vie se révèle embracing the beauty abbracciando la bellezza in life's vibrant dance nella danza vivace della vita every moment a treasure ogni attimo un tesoro in this world of wonders in questo mondo di meraviglie in ogni risveglio vediamo il mondo risplendere celebrando ogni giorno con il cuore pieno di meraviglie la bellezza della vita in ogni respiro sentire nel viaggio del mondo sempre da scoprire</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>['FR', 'IT', 'EN']</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2698,27 +3210,45 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2757,7 +3287,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['FR', 'EN']</t>
+          <t>FR,EN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2771,8 +3301,10 @@
           <t>dans la lumière de l'aube je me lève prêt pour un voyage au-delà des rêves les voiles gonflées par des vents audacieux je quitte le connu les yeux dans les cieux stepping out into the unknown with a heart that's fully grown every step a story untold adventure's calling brave and bold voyage voyage into the night voyage voyage dans la nuit finding our joy in the starlight découvrir to explore and feel free in every land sea to sea à travers les montagnes les vallées sauvages je découvre la beauté les visages des âges les défis abondent mais ma volonté est forte dans chaque défi une leçon qu'on emporte through deserts sands and cities bright à travers les épreuves je trouve la lumière in every smile un rayon de lumière uniting worlds day and night from every corner of this earth i've found a new sense of worth lessons learned and friendships made in my heart they'll never fade voyage voyage more than a dream voyage voyage plus qu'un rêve discovering worlds together en équipe découvrir to live and to learn in every journey un retour a return</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['FR', 'EN']</t>
+        </is>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2784,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2802,9 +3334,27 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2843,7 +3393,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['FR', 'EN']</t>
+          <t>FR,EN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2857,8 +3407,10 @@
           <t>sous un ciel étoilé nos cœurs se sont rencontrés dans le silence de la nuit une étincelle s'est allumée chaque regard chaque sourire une promesse sans dire dans l'air un doux frisson un début sans fin in the dance of our eyes there's a story untold a connection so deep in a world so cold every touch every whisper brings us closer in time in this melody of hearts your rhythm meets mine amour love in the moon's gentle glow amour amour sous la lune douce holding you close i never want to let go dans tes bras i find my peace in this love notre amour never cease les orages viennent et les vagues se brisent dans le chaos notre amour défie et survit dans chaque larme un espoir dans chaque cri une chanson ensemble plus forts notre amour est un pont through storms and calms dans la joie et la peine our love's a flame jamais éteinte in your smile je trouve mon ciel in this love nous sommes éternels in every word in every silence there's a depth of love a defiant reliance in your arms i find a world so true a love story written just for me and you amour love it's more than a feeling amour amour c'est plus qu'une sensation it's a journey of hearts without limitation dans ton cœur i see my home in this love notre amour forever we roam</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>['FR', 'EN']</t>
+        </is>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2870,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2888,9 +3440,27 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2929,7 +3499,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['FR', 'EN']</t>
+          <t>FR,EN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2943,8 +3513,10 @@
           <t>sous le ciel étoilé je prends mon envol dans un monde inconnu je cherche mon rôle la brise me chuchote des secrets anciens je suis prêt pour un voyage qui n'aura pas de fin stepping into the unknown with the wind at my back the horizon calls my name there's nothing i lack every step a new story every turn a surprise in the heart of adventure my spirit flies voyage voyage to lands far and wide voyage voyage la découverte dans chaque aube dans chaque tide feel the rush le frisson de l'inconnu exploring the world c'est un rêve devenu vrai traversant des déserts des montagnes majestueuses chaque défi est un cadeau des expériences précieuses dans le miroir des eaux profondes je me découvre chaque lieu une leçon chaque moment me couvre in the dance of the cultures dans la symphonie des voix finding unity in diversity c'est le vrai choix les étoiles comme guides stars lighting the way in every language l'aventure est là pour toujours through the valleys and peaks i've found my truth in the faces and stories of unending youth every goodbye is a hello to a new dawn in this journey of life we're never truly gone voyage voyage plus loin que la nuit et le jour voyage l'aventure nous appelle avec amour feel the pulse le battement du coeur de la terre exploring forever dans ce monde sans frontière</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>['FR', 'EN']</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2956,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2974,9 +3546,27 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3015,7 +3605,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['FR', 'EN']</t>
+          <t>FR,EN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3029,8 +3619,10 @@
           <t>dans le jardin de mon cœur ton amour a fleuri comme une rose éternelle tu as illuminé ma vie chaque regard partagé un poème non écrit dans tes bras je trouve un refuge infini with every beat of my heart i feel you close in your eyes a universe where love overflows every whisper a symphony in the silence of the night in the canvas of our love we paint with starlight amour amour you're my endless dream amour amour dans tes yeux i find the stars' gleam feel the warmth la chaleur de nos âmes enlacées in your arms love's timeless dance forever sways sous la lune argentée nos cœurs battent à l'unisson chaque mot doux une mélodie qui défie le temps dans le silence de la nuit nos rêves se tissent main dans la main rien n'est impossible in the whisper of the wind dans le souffle du vent we find our melody notre chanson du temps love's language universal l'amour sans frontière in every heartbeat dans chaque battement je te revere through seasons and years our love remains true in the map of our journey every road leads to you every laughter a promise every tear a new dawn in the story of us love's eternal song amour amour like a star never fading amour amour dans ton amour je trouve ma vérité feel the depth la profondeur de notre lien éternel in our hearts love's eternal spring forever dwells</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>['FR', 'EN']</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3042,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3060,9 +3652,27 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3102,7 +3712,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['FR', 'EN']</t>
+          <t>FR,EN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3116,8 +3726,10 @@
           <t>sur le chemin de ma vie j'ai cherché qui je suis dans le miroir du temps mon reflet s'est construit à travers les orages les épreuves à franchir je me suis trouvé dans l'ombre j'ai appris every step a story every fall a rise in the puzzle of my soul i find the prize from the shadows to the light from the ashes i fly with every tear and smile i touch the sky growing growing on this journey so profound growing growing dans chaque épreuve my inner strength is found feel the change le changement au fond de moi in this dance of life je deviens qui je dois face aux miroirs brisés j'ai vu ma vérité chaque éclat un éclat de ma réalité dans le silence de mon cœur j'ai entendu un appel à devenir la version la plus vraie de moi-même in the quiet of the night dans la paix du soir i hear my inner voice c'est mon histoire embracing every part chaque partie de mon être finding peace within dans le calme je renaître with every challenge faced i've grown more and more in the garden of my soul i let my spirit soar through the storms and calm i've found my way in the journey of self i bloom each day growing growing dans cette quête sans fin growing growing trouvant ma voie mon chemin feel the power la force de mon cœur battant in this journey of me je grandis éternellement</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['FR', 'EN']</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3129,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3147,9 +3759,27 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3184,7 +3814,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['AR', 'FR']</t>
+          <t>AR,FR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3198,26 +3828,28 @@
           <t>au lever du jour je sens l'appel de l'aventure un monde inconnu à découvrir sans mesure le vent murmure des histoires d'horizons lointains je suis prêt à m'envoler à prendre ce chemin مع كل نسمة هواء أشعر بالحياة تنادي في قلبي حلم كبير والأمل يزداد في عيني  aventure مغامرة sous le ciel si vaste et beau  exploration استكشاف où nos rêves prennent leur envol sentez l'excitation شعور الإثارة dans chaque découverte ensemble نحن معا on écrit notre propre histoire à travers des forêts denses des déserts immenses chaque pas est un défi chaque vue est une danse l'inconnu se dévoile avec ses merveilles sans fin chaque jour est un cadeau sur ce chemin divin dans la diversité في التنوع nos cœurs s'unissent les expériences تجارب nos âmes se nourrissent l'union de nos voyages اتحاد رحلاتنا dans chaque sourire trouver la joie العثور على الفرح dans chaque désir في كل خطوة أتعلم في كل رحلة أكتشف  الحياة درس جميل وأنا بنيت قوتي  aventure مغامرة plus loin que l'horizon  exploration استكشاف avec passion et raison sentez l'énergie الطاقة de l'aventure éternelle dans notre cœur في قلوبنا la joie est immortelle</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>1</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>['AR', 'FR']</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3232,6 +3864,24 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3266,7 +3916,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['AR', 'FR']</t>
+          <t>AR,FR</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3280,26 +3930,28 @@
           <t>dans un monde où les couleurs se mêlent nos voix s'élèvent unies et belles chaque rire partagé chaque main tendue un pont entre nos âmes jamais perdu معا نصنع عالما أجمل نرسم الأمل في السماء في قلوبنا يعيش الحب والسلام يبقى دوما  harmonie هارموني dans chaque mot في كل كلمة unité وحدة nos cœurs battent à la même cadence dans notre diversité في تنوعنا on trouve la beauté ensemble معا nous sommes l'humanité sous le même ciel nos rêves se tissent dans l'échange on trouve notre promesse nos différences nos plus belles forces dans le respect nos cœurs s'endorssent dans chaque sourire في كل ابتسامة un langage universel la compréhension التفاهم le chemin vers le ciel nos cultures ثقافاتنا un trésor à partager ensemble معا on peut tout changer نحن أزهار في بستان ننمو معا في الحياة تعلمنا أن نحب أن نعيش معا بسلام harmonie هارموني ensemble nous brillons unité وحدة dans nos cœurs elle résonne dans notre amour في حبنا la force de l'unité ensemble معا pour l'éternité</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>1</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>['AR', 'FR']</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3314,6 +3966,24 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3348,7 +4018,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['AR', 'FR']</t>
+          <t>AR,FR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3362,26 +4032,28 @@
           <t>dans les moments sombres quand tout semble perdu une lueur d'espoir brille ténue mais vécue chaque épreuve une leçon chaque larme un chemin dans la nuit je trouve la force de demain في الصعاب نجد الأمل نرى النور في الظلام قوتنا في صبرنا والأمل يجدد حياتنا espoir أمل même dans l'obscurité la plus profonde  résilience صمود dans nos cœurs elle répond à travers les tempêtes عبر العواصف on reste debout ensemble معا on surmonte tout sous chaque étoile un rêve attend de s'éveiller dans chaque défi une chance de se réinventer nos cœurs battent fort dans l'unisson d'espoir chaque jour est un cadeau un nouveau départ dans l'union في الاتحاد nous trouvons notre pouvoir la force de l'espoir قوة الأمل dans nos histoires chaque pas en avant كل خطوة إلى الأمام un acte de courage dans l'espoir في الأمل on trouve notre ancrage كل ليلة تمر تجلب معها فجر جديد في قلوبنا يعيش الأمل ينير طريقنا espoir أمل il brille toujours dans le noir  résilience صمود une flamme dans le soir dans chaque moment في كل لحظة on trouve la force ensemble معا on trace notre course</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['AR', 'FR']</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3396,6 +4068,24 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3430,7 +4120,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['AR', 'FR']</t>
+          <t>AR,FR</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3444,26 +4134,28 @@
           <t>dans le souffle du vent je trouve mon bonheur chaque petite joie un trésor de valeur la chaleur du soleil le rire des enfants dans ces moments simples je vis pleinement في الأشياء الصغيرة نجد السعادة الحقيقية  الحب في كل نظرة والفرح في كل قلب  joie de vivre فرح الحياة dans chaque souffle de l'air  célébrons نحتفل la beauté dans le simple et clair dans un sourire في ابتسامة la vie trouve son écho ensemble معا on apprécie ce cadeau sous un ciel étoilé la magie de la nuit la douce mélodie de la nature qui suit chaque fleur chaque feuille un poème à découvrir dans ces détails la vie nous invite à sourire dans la simplicité في البساطة on trouve notre chemin le bonheur السعادة dans le quotidien chaque instant précieux كل لحظة ثمينة un cadeau de la vie dans la joie في الفرح notre cœur s'épanouit في النسيم العليل في ضحكة الأطفال  نجد جمال الحياة والسعادة في الآمال  joie de vivre فرح الحياة elle illumine notre chemin  célébrons نحتفل chaque instant chaque matin dans l'amour de la vie في حب الحياة notre bonheur s'épanouit ensemble معا chaque jour on vit</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>1</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['AR', 'FR']</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3478,6 +4170,24 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3512,7 +4222,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['AR', 'FR']</t>
+          <t>AR,FR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3526,26 +4236,28 @@
           <t>sous le voile de la nuit le monde s'éveille en secret chaque étoile un mystère dans le ciel discret la lune guide mes pas dans les rues endormies dans l'obscurité je trouve la lumière de la vie في صمت الليل نسمع همسات النجوم القمر يحكي قصة عن عالم مجهول beauté mystique جمال غامض dans la danse des ombres  la nuit الليل un tableau où nos rêves s'assemblent sous les étoiles تحت النجوم chaque secret se révèle ensemble معا dans ce monde on veille la nuit un poème écrit par le ciel étoilé chaque constellation un destin non dévoilé la brise nocturne murmure des légendes anciennes dans ses ombres je me perds et je me trouve serein dans la magie في السحر de la nuit éternelle on trouve نجد des vérités universelles chaque moment كل لحظة un cadeau du cosmos dans l'union في الاتحاد avec la nuit nous sommes gros الليل يكشف أسراره يرينا جماله الخفي  في الظلام نجد النور وفي الهدوء نجد الحياة  beauté mystique جمال غامض elle nous enlace chaque nuit beauté mystique jamal ghamid la nuit الليل une étreinte où tout est permis sous le ciel تحت السماء émerveillés par son appel ensemble معا dans son mystère on trouve l'essentiel</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>['AR', 'FR']</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3560,6 +4272,24 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3598,7 +4328,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['KO', 'EN']</t>
+          <t>KO,EN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3612,8 +4342,10 @@
           <t>모험의 시작 새로운 세상이 열린다 꿈꾸던 순간들 이제 막 펼쳐지고 떠나는 길목에서 설렘 가득한 마음 하늘과 바다 너머 새로운 꿈을 찾아서 on the brink of a journey where the skies meet the seas every step takes me closer to the mysteries with the map of my heart and the stars as my guide i'm ready to explore with my arms open wide 모험 adventure in every corner of the world 탐험의 기쁨 the joy of discovery unfurled 새로운 세계 new horizons waiting to be seen 함께 together we're living the dream 낯선 땅을 걷고 숨겨진 이야기를 찾아 도전의 순간들 그 안에 숨겨진 보물 빛나는 별들 아래 길을 잃어도 마음의 나침반 항상 나를 이끌어 in every challenge 도전 속에서 we find our way 함께라면 together we can face any day 각자의 꿈 our dreams under the same sky 손에 손 잡고 hand in hand we aim high through valleys and mountains i've learned who i am every new face and place a part of the grand plan from the lessons of the road to the stories untold in this journey of life i've found my own gold 모험 adventure it's in our hearts to roam  탐험의 정신 the spirit of exploration our home 새로운 꿈 new dreams on this endless road 함께 together our stories will be told</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['KO', 'EN']</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3628,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3637,15 +4369,33 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +4434,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['KO', 'EN']</t>
+          <t>KO,EN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3698,8 +4448,10 @@
           <t>너와의 첫 만남 마음이 뛰기 시작할 때 별빛 아래 속삭임 달빛 속에서 너를 봤어 네 눈빛 속에 반짝이는 사랑의 불꽃을 느꼈어 너와 함께라면 어떤 순간도 특별해져 in your eyes i found a world so bright and new every moment with you feels like a dream come true in the dance of our hearts where love takes flight we find our rhythm under the moonlit night 사랑 love in every beat of our hearts  너와 나의 이야기 the story of you and me starts 손에 손을 잡고 holding hands walking this way 함께라면 together love leads the way 너의 웃음에 모든 걱정들이 사라져 너와의 모든 순간 마법처럼 느껴져 너는 내 삶의 빛 가장 아름다운 선물 너와의 시간 영원히 간직하고파 in your embrace 네 품에서 i find my peace 사랑의 언어로 with the language of love all fears cease 우리의 꿈 our dreams intertwined so tight 서로의 마음 in each other’s hearts we take flight with every laugh and tear we've grown so close in the melody of love we find our sweet repose you're my north star guiding me through the night in your love i've found my eternal light 사랑 love it's the melody we sing  너와 나 you and i together in everything 이 손을 놓지 않을게 i won't let go of your hand 함께라면 together in love we stand</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>['KO', 'EN']</t>
+        </is>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3714,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3723,15 +4475,33 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3770,7 +4540,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['KO', 'EN']</t>
+          <t>KO,EN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3784,8 +4554,10 @@
           <t>내 안에 숨겨진 진짜 내 모습을 찾아 거울 속에 비친 나만의 길을 걸어가 두려움을 넘어 내 꿈을 향해 달려가 내 목소리를 찾아 진실된 나를 외쳐봐 breaking free from the shadows stepping into the light finding strength in my story every day and night in the whispers of my heart i find the courage to be the person i was meant unapologetically 나를 찾는 여행 journey of finding me  내 안의 파워 the power inside set free 꿈을 향해 달리는 running towards my dream 나만의 길 my own path more than it seems 세상의 소음 속 나만의 목소리 들어 자신감을 가지고 내일을 향해 나아가 나를 믿는 것 그것이 내 힘의 시작 나만의 색깔로 세상을 물들여 봐 in my reflection 내 반영에서 i see who i can be 나의 가능성 my potential limitless and free 매일 성장해 growing every day in my own way 내 꿈을 위해 for my dreams i'll pave the way with every step i take i write my own story embracing all my flaws in my imperfections glory i'm stronger than i know with every challenge i face in the journey of self i find my true grace 나를 찾는 여행 journey of finding me  내 안에 숨은 힘 the hidden strength in me 내일을 향해 towards tomorrow i stride 나만의 길에서 on my path with pride</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>['KO', 'EN']</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3800,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3809,15 +4581,33 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3856,7 +4646,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['KO', 'EN']</t>
+          <t>KO,EN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3870,8 +4660,10 @@
           <t>여름 바람이 불어오면 마음이 설레기 시작해 파란 하늘 아래 자유를 만끽해 해변의 모래 위에서 햇살을 가득 안고 여름의 기쁨 속으로 나는 춤추고파 under the sun life feels like a dream every moment is sweet like a peach ice cream with the waves kissing our feet in the golden light summer days summer nights everything feels right 여름의 자유 summer freedom in the air we breathe  햇살 속에서 노래해 singing in the sunshine carefree 바다의 노래 ocean's melody calling us to play 여름의 마법 summer magic in every single day 별빛이 내리는 밤 불꽃놀이의 환상적인 빛 함께 모여 노래하고 여름밤을 축하해 시원한 바람이 불어오고 파도가 음악을 만들 때 이 순간을 영원히 마음에 간직하고파 in the twilight 황혼에서 the sky's alight with hues 여름의 추억 summer memories we'll never lose 웃음과 사랑으로 with laughter and love our hearts beat 이 여름 밤 this summer night so warm so sweet fireflies dancing in the night a symphony of light summer's embrace gentle and bright holds us tight every star tells a story of summer nights long ago in the magic of these moments our true colors show 여름의 자유 summer freedom in our laughter and song  햇볕 아래에서 in the sunshine where we belong 바다와 별빛 sea and starlight guide our way 여름의 마법 summer magic in our hearts to stay</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>['KO', 'EN']</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3886,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3895,15 +4687,33 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3942,7 +4752,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['KO', 'EN']</t>
+          <t>KO,EN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3956,8 +4766,10 @@
           <t>가을 바람이 불어오면 옛 사랑이 생각나 그리운 얼굴 잊을 수 없는 그날들 너와 걷던 그 길 위에 낙엽이 가득해 너와의 추억 한 장의 사진처럼 떠올라 the echo of your laughter a melody in my heart in the silence of my room where our world fell apart the ghost of your touch still lingers in the air in every corner a memory of the love we used to share 잊혀지지 않는 사랑 unforgettable love in the whispers of the night 너와 나눴던 시간 the times we shared still shining bright 마음의 틈새로 through the cracks of my heart your memory flows 잃어버린 사랑 lost love like a rose that never grows 차가운 겨울밤 네 생각에 잠 못 이루고 빗물처럼 너의 이름을 부르면서 우리의 사랑은 변했지만 아직도 마음속에 너는 내 영원한 봄 잊을 수 없는 꿈 in the silence 침묵 속에서 i hear your voice calling me 너의 그림자 your shadow in everything i see 사랑의 노래 love's song now a lullaby of pain 잊혀지지 않는 unforgettable like the gentle autumn rain in the book of my life you're a chapter of gold a story of love now a legend of old in the moonlight's embrace i find solace in the night holding onto the sweet memory of when we were right 잊혀지지 않는 사랑 unforgettable love in the tears i cry  너와의 소중한 추억 precious memories in the starry sky 가슴 아픈 사랑의 노래 the painful song of love echoes in my soul 잃어버린 사랑 lost love in my heart you play a role</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>['KO', 'EN']</t>
+        </is>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3972,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -3981,15 +4793,33 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4028,7 +4858,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['IT', 'ES']</t>
+          <t>IT,ES</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4042,32 +4872,34 @@
           <t>sotto un cielo di stelle inizia il viaggio con un cuore pieno di sogni e coraggio le onde ci chiamano verso terre lontane ogni passo un mistero ogni vista una trama con cada paso la emoción crece en mi pecho el mundo nos espera con sus secretos deshechos vientos de aventura soplan fuerte y claro en este viaje encontraremos nuestro faro avventura aventura nei sentieri e nei mari avventura aventura scoprendo mondi descubriendo verdades il brivido della scoperta el pulso de la exploración in questo viaggio en este viaje troviamo la nostra passione attraversando montagne esplorando valli profonde ogni sfida un insegnamento ogni scoperta un orizzonte sotto il sole ardente o la pioggia battente ogni momento è prezioso ogni esperienza un ponte in ogni sguardo en cada mirada un nuovo mondo si apre en la unión de nuestros caminos nelle nostre strade la forza dell'unione la fuerza de estar juntos in questo viaggio en este viaje non siamo mai solos en cada desafío crecimos más fuertes en los momentos difíciles encontramos suertes este viaje nos cambió enseñando lo que somos en cada paso en cada gesto nos descubrimos avventura aventura nel cuore e nell'anima  con ogni passo con cada paso la vita si illumina la gioia dell'esplorazione la alegría de explorar in questo viaggio en este viaje impariamo ad amar</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['IT', 'ES']</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -4076,6 +4908,24 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4114,7 +4964,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['IT', 'ES']</t>
+          <t>IT,ES</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4128,32 +4978,34 @@
           <t>nelle strade della vita dove ogni passo è incerto tra le gioie e le sfide il mio coraggio è scoperto sotto il cielo mutevole cammino con speranza in ogni sorriso in ogni lacrima c'è una danza en cada caída aprendo a levantarme con cada herida encuentro cómo curarme la vida es un viaje con sus propias pruebas en cada momento se revelan nuevas forza fuerza nei momenti difficili  encontrando la luz nelle tenebre più profonde la vita la vida un mosaico di emozioni in ogni sfida en cada desafío troviamo le nostre lezioni attraverso le tempeste imparo a navigare nei momenti di dubbio cerco di volare ogni errore una lezione ogni passo un destino nel viaggio della vita cerco il mio cammino in ogni lacrima en cada lágrima una storia da raccontare en la fortaleza nella forza impariamo ad amare unendo i nostri sogni uniendo nuestros sueños in questo viaggio en este viaje somos más que pequeños en los altos y bajos encuentro mi verdad en el espejo del tiempo veo mi identidad este viaje me enseña lo que realmente vale en cada paso en cada error mi espíritu no falla forza fuerza nel cuore di ogni battaglia  en cada lucha in ogni dolore la vita ci abbraccia la vita la vida un viaggio di scoperte in ogni sfida en cada desafío siamo forti liberi e aperte</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['IT', 'ES']</t>
+        </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4162,6 +5014,24 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4200,7 +5070,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['IT', 'ES']</t>
+          <t>IT,ES</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4214,32 +5084,34 @@
           <t>nelle notti silenziose il tuo ricordo mi visita come un'ombra leggera dolce e infinita le strade vuote sussurrano il tuo nome in ogni angolo un'eco del nostro amore en cada estrella veo tus ojos brillar la luna llena me trae tu suspirar la distancia es cruel pero en mis sueños estás en cada pensamiento aún me haces volar nostalgia nostalgia nel cuore una melodia en la soledad in solitudine tu amor todavía ricordi recuerdos en cada suspiro mío in ogni momento en cada momento siento tu vacío sotto la luce dell'alba la tua assenza pesa di più ogni momento senza te come un cielo senza blu le tue parole un'eco in un cuore spezzato in ogni risveglio un sogno mai realizzato in ogni lacrima en cada lágrima una storia non finita nella nostalgia en la nostalgia una vita non scritta il dolore dell'amore el dolor del amor ci unisce nel passato in ogni ricordo en cada recuerdo sei ancora a mio fianco en el silencio de la noche tu ausencia me abraza cada recuerdo una llama que nunca se apaga este anhelo me enseña el poder del amor verdadero en cada espacio vacío estás tú mi único deseo nostalgia nostalgia in ogni alba in ogni sera  en cada paso in ogni respiro l'essenza di una primavera ricordi recuerdos che vivono dentro di me in ogni battito en cada latido sei con me per sempre in me</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['IT', 'ES']</t>
+        </is>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -4248,6 +5120,24 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4286,7 +5176,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['IT', 'ES']</t>
+          <t>IT,ES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4300,32 +5190,34 @@
           <t>sotto il cielo di luglio la città prende vita luci scintillanti una festa infinita le strade si animano con risate e canzoni nelle notti d'estate viviamo senza confini el aire cálido susurra secretos y aventuras bajo las estrellas la noche nos susurra la libertad nos llama en cada calle y cada rincón en estas noches de verano encontramos nuestra pasión estate verano una danza sotto la luna  riendo y cantando la noche nos une y acuna calor y magia calore e magia en el aire de la ciudad en cada esquina in ogni angolo un mundo de libertad la luna brilla alta guidando i nostri passi rivelando sogni nascosti sotto i suoi riflessi ogni incontro un destino ogni sguardo una storia nelle notti d'estate ogni momento è gloria en la luz de las estrellas nella luce delle stelle sentimos la vida sentiamo la vita vibrante y bella risas y sueños risate e sogni se entrelazan en la noche en esta fiesta in questa festa todo es posible todo se acerca en la calma de la noche el mundo parece nuevo cada momento un regalo cada experiencia un juego las calles nos invitan a vivir sin miedo en esta noche de verano todo es un deseo estate verano con il battito del cuore  bailando y viviendo en la noche encontramos amor calor y magia calore e magia en esta noche sin fin en cada risa in ogni risata la vita ci invita a unir</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['IT', 'ES']</t>
+        </is>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -4334,6 +5226,24 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,7 +5282,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['IT', 'ES']</t>
+          <t>IT,ES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4386,32 +5296,34 @@
           <t>nelle ombre della vita trovo la mia luce ogni ostacolo un gradino in questa lotta che conduce con ogni caduta una lezione imparata nel cambiamento la mia strada è stata tracciata cada desafío una oportunidad para crecer en las dificultades aprendo a ser la vida cambia como las olas del mar y en cada cambio me vuelvo a encontrar cambiamento cambio una forza che mi guida  en la tormenta nella tempesta encuentro mi vida superando superando ogni sfida con coraggio en cada batalla in ogni battaglia trovo il mio viaggio attraverso tempeste affronto i miei timori ogni momento di dubbio apre nuovi orizzonti la forza dentro di me più forte di qualsiasi tempesta nel cambiamento la mia anima resta in ogni lacrima en cada lágrima una storia di resilienza con coraggio con valentía affronto la mia esistenza crescendo creciendo in ogni sfida en cada prueba en este cambio in questo cambiamento mi alma se renueva en los momentos de cambio encuentro mi verdad en cada final empieza una nueva oportunidad la vida es un ciclo un constante renacer y en cada despedida aprendo a renacer cambiamento cambio nel fluire del tempo  abrazando abbracciando cada nuevo momento superando superando con ogni respiro en cada paso in ogni passo vivo e respiro</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['IT', 'ES']</t>
+        </is>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4420,6 +5332,24 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4458,7 +5388,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['SW', 'EN']</t>
+          <t>SW,EN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4472,8 +5402,10 @@
           <t>tunaanza safari kuelekea mbali mawimbi na nyota vinatuongoza kwenye ndoto zetu upepo mwanana unasafirisha roho kuelekea duniani penye maajabu na siri setting sail under the vast open sky every wave a story every star a guide the horizon calls with its mysteries untold on this journey of discovery watch our adventure unfold safari journey exploring lands near and far  tunagundua discovering under the sun and the stars adventure ushujaa with every step we grow in this world of wonder let our spirits flow katika njia isiyojulikana tunapata changamoto mbuga za wanyama milima na mito kila uzoefu ni somo kila mandhari hadithi katika ardhi za mbali tunajifunza na kuthamini through the savannas kupitia savana under the african sun learning and growing tukikua our journey's never done from the highest peak hadi kilele to the deepest sea together pamoja we're free completely free across the continents we've journeyed far and wide finding strength within with every tide from strangers to friends from unknown to known in this journey of life see how much we've grown safari journey in the rhythm of the earth safari journey tunajifunza we learn what this journey is worth ushujaa adventure in every heart every soul katika safari hii in this journey we're whole</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['SW', 'EN']</t>
+        </is>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4488,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4503,9 +5435,27 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,7 +5494,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['SW', 'EN']</t>
+          <t>SW,EN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4558,8 +5508,10 @@
           <t>moyo wangu unakuita katika kimya cha usiku kila nyota angani inakumbusha macho yako katika ndoto zangu nakukumbatia kwa upendo lakini macho yangu yakifunguka upo mbali mno in the quiet of the night i feel your presence near yet the dawn reminds me you're not here every memory a treasure in my heart so deep in my dreams it's your love i keep mapenzi love burning like an eternal flame nakutamani i yearn for you in every way your absence kukosekana kwako leaves my heart in pain in my every thought kila wazo you remain sauti yako ni wimbo unaonijaza furaha lakini ukimya ukinijia moyo wangu unajawa na huzuni kila kumbukumbu ni tamu lakini pia na machungu katika mapenzi haya kuna safari isiyo na mwisho katika umbali in the distance i feel your touch katika kila wimbo in every song i hear your voice so much kukumbuka remembering our hearts intertwined in this love katika mapenzi haya our souls aligned through seasons and time my love only grows in every sunrise and sunset my affection shows the longing for you a constant echo in my heart in this dance of love we're never apart mapenzi love like the stars above so bright  nakutamani i yearn for you every day and night in your absence katika kukosekana kwako i find my love's true test in my heart moyoni mwangu you'll always be my guest</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['SW', 'EN']</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4574,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4589,9 +5541,27 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,7 +5600,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['SW', 'EN']</t>
+          <t>SW,EN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4644,8 +5614,10 @@
           <t>katika safari ya maisha marafiki ni hazina wakati wa furaha na katika huzuni pia kicheko chetu pamoja kama muziki mtamu katika kila kumbukumbu urafiki wetu ni nguzo in the tapestry of life friends are the brightest thread through every twist and turn by them we are led their laughter and support a light in every way in the story of our lives they bring the brightest day urafiki friendship a bond that never breaks  tunashirikiana we share every joy and ache laughing together kucheka pamoja under the sun's glow in friendship katika urafiki our true colors show katika nyakati ngumu marafiki ni ngao wakitupa nguvu katika kila changamoto mikono yao inatupa msaada wenye thamani katika dunia yenye changamoto wao ni zawadi ya maishani kwa maneno with words and in silence kimya they understand katika kicheko in laughter and in tears machozi they lend a hand urafiki friendship is more than just being near it's a feeling ni hisia that holds us dear through seasons of change in them we find our home in the pages of our journey their love is the tome in every shared secret every hug and smile friendship the treasure that makes life worthwhile urafiki friendship it's the heart's sweet song  tunashirikiana together through right and wrong in this bond katika muungano huu we find our greatest treasure in friendship katika urafiki we find endless pleasure</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['SW', 'EN']</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -4660,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4675,9 +5647,27 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4716,7 +5706,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['SW', 'EN']</t>
+          <t>SW,EN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4730,8 +5720,10 @@
           <t>maisha kama safari isiyotabirika kila kona ina siri kila siku ni fursa mpya katika kicheko na machozi tunajifunza kila wakati maisha yana rangi nyingi kama anga la jioni in the whirlwind of days we find our way embracing the unknown come what may with every high and low we grow and see life's unpredictability a beautiful mystery maisha life full of surprises kila siku  in the twist and turns katika mabadiliko we find something true living boldly kuishi kwa ujasiri through the storm and calm in life katika maisha we find our song our balm katika safari hii kuna vicheko na machozi kuna kushinda na kushindwa na kujifunza kutokana na makosa tunapitia milima na mabonde lakini daima tunasonga mbele katika maisha kuna mafundisho yasiyoisha katika kila changamoto in every challenge we find strength kuishi kwa matumaini living with hope at every length maisha life a canvas of endless hues in each experience katika kila uzoefu we find our clues through the laughter and tears in the dance of the years we embrace life's tapestry with its hopes and fears in every unexpected twist in every heartfelt moment life's a journey to be cherished a perpetual movement maisha life a never-ending dance daima inabadilika  with every step kwa kila hatua we take a chance in this adventure katika hii safari we live we learn we love in life katika maisha we find the beauty from above</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['SW', 'EN']</t>
+        </is>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -4746,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4761,9 +5753,27 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4802,7 +5812,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['SW', 'EN']</t>
+          <t>SW,EN</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4816,8 +5826,10 @@
           <t>katika kina cha nafsi yangu safari ya ndani imeanza kila fikira na ndoto zinaongoza kwenye tafakari katika ukimya wa moyo wangu najitafuta kujua nani mimi ni katika ulimwengu usiokoma in the stillness of my soul i hear whispers of truth unraveling the mysteries of my days of youth in the mirror of my mind i seek to understand the story of who i am the journey that i've planned safari ya ndani inner journey a path to my core  kujitambua self-discovery opens a new door exploring my heart kuchunguza moyo wangu with every beat in this journey katika safari hii myself i meet kila kumbukumbu ni ukurasa wa maisha yangu kujifunza kutokana na yaliyopita kuelekea yajayo katika kila furaha na maumivu kuna somo la thamani kujichunguza kujielewa ni safari isiyo na mwisho katika kila machozi in every tear a lesson to be found kupata nguvu gaining strength from the ground the journey within safari ya ndani a silent quest in self-reflection katika kujitafakari i find my best with every introspective moment i find pieces of me in the quiet of my thoughts a vast endless sea uncovering layers revealing a new light in this inner journey i find my might safari ya ndani inner journey to the depths of my soul kutafakari reflecting making myself whole in this voyage katika safari hii i embrace every part in my inner journey katika safari ya ndani i find my heart</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['SW', 'EN']</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -4832,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -4847,9 +5859,27 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,7 +5918,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['DE', 'EN']</t>
+          <t>DE,EN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4902,11 +5932,13 @@
           <t>unter dem weiten himmel beginnt unsere reise mit dem wind im rücken zu neuen ufern weise jeder horizont ruft uns zu unbekannten landen mit hoffnung in unseren herzen auf zu neuen abenteuern with each step we're writing our own story in the book of the world in all its glory the thrill of the unknown calling us to roam on this journey of discovery the world is our home abenteuer adventure in every land and sea entdecken discovering what our world can be freiheit freedom in the wind under the sun in this journey in dieser reise we are one durch wälder und wüsten über berge und seen die schönheit der erde überall zu sehen in jedem herausforderung in jedem wunder der natur finden wir unseren weg mit jedem abenteuer pur in the challenge in der herausforderung we find our strength in der schönheit der welt in the world's length from the highest peak zum höchsten gipfel to the deepest blue together zusammen there's nothing we can't do through every trial and triumph we've grown so bold with stories of courage and tales untold in each sunset and sunrise in every starlit night we've found pieces of ourselves in the world's light abenteuer adventure it's the pulse in our veins  entdecken discovering through the sun and the rains freiheit freedom it's the song of our heart in dieser reise on this journey we've made our mark</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['DE', 'EN']</t>
+        </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -4915,10 +5947,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -4933,9 +5965,27 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4974,7 +6024,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['DE', 'EN']</t>
+          <t>DE,EN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4988,11 +6038,13 @@
           <t>unter dem sternenhimmel denke ich an dich deine augen leuchten wie sterne so stolz und reich in deiner abwesenheit ist mein herz allein doch in meinen träumen da bist nur du allein in the stillness of the night i hear your name in my heart a burning flame the distance between us only makes me see in this love in dieser liebe you and me liebe love it's a fire in my soul  vermissen missing makes me feel whole sehnsucht longing in every breath i take in our love in unserer liebe my heart does wake in meinen träumen sind wir immer nah durch zeiten und entfernungen du bist da jeder augenblick jeder gedanke ist ein kuss in dieser liebe in dieser liebe verlieren wir uns in every memory in jeder erinnerung i find your grace in the warmth of your love in der umarmung your embrace liebe love it's the rhythm of our song in our hearts in unseren herzen we both belong through every season our love remains in laughter and tears through joy and pains in the story of us in every line in dieser liebe our hearts entwine liebe love it's a melody so sweet  vermissen missing when we can't meet sehnsucht longing in this love i'm free in unserer liebe in our love you and me</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['DE', 'EN']</t>
+        </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -5001,10 +6053,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -5019,9 +6071,27 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5060,7 +6130,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['DE', 'EN']</t>
+          <t>DE,EN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5074,11 +6144,13 @@
           <t>in der stille der nacht blicke ich nach vorn mit jedem atemzug mit jedem neuen morgen kein berg ist zu hoch keine straße zu weit in unseren herzen in unseren herzen brennt der streit with every step we'll break through the storm in unity together we'll transform no obstacle too great no trial too severe in our journey in unserer reise we persevere durchhalten hold on through the darkest night  stärker werden growing stronger in the fiercest fight unsere träume our dreams will light the way in unserer reise in our journey come what may in der hitze des augenblicks finden wir den weg in jedem augenblick in jedem lebensreg mit entschlossenheit gehen wir unseren lauf in unserem herzen in unserem herzen ist der glaube tief in every challenge in jeder herausforderung we find our might mit zuversicht with confidence we'll take flight durchhalten hold on in unity we stand in unserer reise in our journey hand in hand through every trial we'll find our grace in every battle we'll set the pace with hearts ablaze we'll reach the stars above in dieser reise in this journey we'll conquer with love durchhalten hold on together we will soar  stärker werden growing stronger than ever before unsere träume our dreams will lead the way in unserer reise in our journey we'll seize the day</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['DE', 'EN']</t>
+        </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -5087,10 +6159,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -5105,9 +6177,27 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5146,7 +6236,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['DE', 'EN']</t>
+          <t>DE,EN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5160,11 +6250,13 @@
           <t>in der stille der erinnerung sehe ich zurück auf vergangene zeiten auf glück und leid und glück die alten fotos ein lächeln in der zeit in unseren herzen in unseren herzen bleibt die erinnerung weit in the pages of our history we find our tale in the winds of time we set sail the past lives on in every smile and tear in unserer erinnerung in our memory it's always near nostalgie nostalgia it's a bittersweet embrace  erinnerungen memories of a familiar place unsere träume our dreams forever intertwined in unserer erinnerung in our memory we find the bind die alten lieder sie erzählen uns viel von vergangenen abenteuern von herz und spiel die momente des lachens die tränen im regen in unserer erinnerung in unserer erinnerung bleibt alles gegenwärtig in every photo in jedem foto a story to be told in jedem gefühl in every feeling a memory to hold nostalgie nostalgia a journey through time in unserer erinnerung in our memory the past is prime through the seasons of our lives we reminisce and sigh in the canvas of our memories the colors never die with every step forward we still look behind in dieser erinnerung in this memory our hearts are twined nostalgie nostalgia it's a familiar tune  erinnerungen memories in the light of the moon unsere träume our dreams in the stars they shine in unserer erinnerung in our memory for all of time</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['DE', 'EN']</t>
+        </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -5173,10 +6265,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -5191,9 +6283,27 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5232,7 +6342,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['DE', 'EN']</t>
+          <t>DE,EN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5246,11 +6356,13 @@
           <t>in der dunkelheit der nacht blicken wir nach vorn ein funken hoffnung in unseren herzen geborn durch jeden sturm durch jede prüfung werden wir geh'n in unserem glauben in unserem glauben werden wir besteh'n in the depths of our souls we find the light through every challenge we'll take flight with courage in our hearts we'll face the unknown in dieser hoffnung in this hope our strength has grown hoffnung hope it's a beacon in the night  vertrauen trust in the darkest fight unsere träume our dreams like stars they gleam in dieser hoffnung in this hope we'll chase our dream in den schwierigsten momenten werden wir standhaft sein die zukunft gestalten mit entschlossenheit und pein die welt mag stürmen die zeiten mögen wechseln in unserem herzen in unserem herzen werden wir nicht verwechseln in every setback in jedem rückschlag we'll find our way mit zuversicht with confidence we'll seize the day hoffnung hope a guiding star so bright in dieser hoffnung in this hope we'll reach the height through the trials we face we'll emerge so strong with every challenge we'll prove them wrong in the story we write with each page we turn in dieser hoffnung in this hope our souls will burn hoffnung hope it's the anthem of our heart vertrauen trust is where we'll start unsere träume our dreams will take the lead in dieser hoffnung in this hope we'll succeed</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['DE', 'EN']</t>
+        </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -5259,10 +6371,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5277,9 +6389,27 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5339,27 +6469,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>AR,EN</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Bayou &amp; HADY MOAMER &amp; Motif Alumni</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Call Her Right Now</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>if that's your baby why she calling right now if that's your baby why she calling right now if that's your baby why she calling right now bayou come in right now too many songs about my exes maybe i'm better off just texting her right now is it too late i learned my lessons don't wanna be selfish but i need you right now وليه ياحبيبي تسألني صدقت والنجوم تشهد لي كنت بعيش انا متمني يكبر هوانا كاتمها ودمعي على خدي مدينة كبيرة مش قدي بس حاسس اني لوحدي بكل امانة وبعدين هروح فين بعد اما شفت قسوة فعنيه اختياري ده مش هين هين هين وبعدين هروح فين بعد اما شفت قسوة فعنيه اختياري ده مش هين هين هين i was outside and i had you crying demons that you dealt with in silence i could only love you in private dirt on me but you stuck beside me and i don't take this lightly وليه ياحبيبي تسألني صدقت والنجوم تشهد لي كنت بعيش انا متمني يكبر هوانا كاتمها ودمعي على خدي مدينة كبيرة مش قدي بس حاسس اني لوحدي بكل امانة وبعدين هروح فين بعد اما شفت قسوة فعنيه اختياري ده مش هين هين هين وبعدين هروح فين بعد اما شفت قسوة فعنيه اختياري ده مش هين هين هين</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>['AR', 'EN']</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Bayou &amp; HADY MOAMER &amp; Motif Alumni</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Call Her Right Now</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>if that's your baby why she calling right now if that's your baby why she calling right now if that's your baby why she calling right now bayou come in right now too many songs about my exes maybe i'm better off just texting her right now is it too late i learned my lessons don't wanna be selfish but i need you right now وليه ياحبيبي تسألني صدقت والنجوم تشهد لي كنت بعيش انا متمني يكبر هوانا كاتمها ودمعي على خدي مدينة كبيرة مش قدي بس حاسس اني لوحدي بكل امانة وبعدين هروح فين بعد اما شفت قسوة فعنيه اختياري ده مش هين هين هين وبعدين هروح فين بعد اما شفت قسوة فعنيه اختياري ده مش هين هين هين i was outside and i had you crying demons that you dealt with in silence i could only love you in private dirt on me but you stuck beside me and i don't take this lightly وليه ياحبيبي تسألني صدقت والنجوم تشهد لي كنت بعيش انا متمني يكبر هوانا كاتمها ودمعي على خدي مدينة كبيرة مش قدي بس حاسس اني لوحدي بكل امانة وبعدين هروح فين بعد اما شفت قسوة فعنيه اختياري ده مش هين هين هين وبعدين هروح فين بعد اما شفت قسوة فعنيه اختياري ده مش هين هين هين</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
@@ -5367,13 +6499,13 @@
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5388,9 +6520,27 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5440,27 +6590,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>AR,EN</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Elyanna</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MAMA EH</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>أنا ليك وإنت لي مش عايزة منك حاجة غالية شنطتي هدية من أختين ما تقول لي القصة رايحة فين والعة وعايزة كثير فلوس stylist ال elyanna hoops yeah كل البنات لابسة عايز ترضيني بتعمل المجهود ليه shines for you مش شايف حب عيوني شو حبيتك شو داريتك مش عايزة غيرك break yeah مش عايزة take إنت لي وأنا ليك خذ ماما إيه ماما ماما إيه ماما ماما إيه أعمل إيه ماما ماما ييه ماما ماما ييه ماما ييه ماما ماما ييه ماما ماما إيه ماما إيه ماما إيه ليه هو الحظ بييجي وبيروح بيلف معايا يسبني ويدور وقفتك جنبي أحلى حاجة بالوجود ياما تنازلنا حتى نوصل النجوم الدنيا والعة وعايزة كثير فلوس bandana و hoops yeah كل البنات لابسة عايز ترضيني بتعمل المجهود ليه shines for you مش شايف حب عيوني شو داريتك شو داريتك مش عايزة غيرك break yeah مش عايزة take إنت لي وأنا ليك خذ ماما إيه ماما ماما إيه ماما ماما إيه أعمل إيه ماما ماما ييه ماما ماما ييه ماما ييه ماما ماما ييه ماما ماما إيه ماما إيه ماما إيه break مش عايزة take إنت لي وأنا ليك خذ break مش عايزة take إنت لي وأنا ليك خذ break مش عايزة take إنت لي وأنا ليك خذ break مش عايزة take إنت لي وأنا ليك خذ آه ماما إيه ماما ماما إيه ماما ماما إيه أعمل إيه ماما ماما ييه ماما ماما ييه ماما ييه ماما ماما ييه ماما ماما إيه ماما إيه ماما إيه ماما ماما إيه ماما ماما إيه أعمل إيه ماما ماما ييه ماما ماما ييه ماما ييه ماما ماما ييه ماما ماما إيه ماما إيه ماما إيه ماما إيه ماما إيه</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>['AR', 'EN']</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Elyanna</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>MAMA EH</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>أنا ليك وإنت لي مش عايزة منك حاجة غالية شنطتي هدية من أختين ما تقول لي القصة رايحة فين والعة وعايزة كثير فلوس stylist ال elyanna hoops yeah كل البنات لابسة عايز ترضيني بتعمل المجهود ليه shines for you مش شايف حب عيوني شو حبيتك شو داريتك مش عايزة غيرك break yeah مش عايزة take إنت لي وأنا ليك خذ ماما إيه ماما ماما إيه ماما ماما إيه أعمل إيه ماما ماما ييه ماما ماما ييه ماما ييه ماما ماما ييه ماما ماما إيه ماما إيه ماما إيه ليه هو الحظ بييجي وبيروح بيلف معايا يسبني ويدور وقفتك جنبي أحلى حاجة بالوجود ياما تنازلنا حتى نوصل النجوم الدنيا والعة وعايزة كثير فلوس bandana و hoops yeah كل البنات لابسة عايز ترضيني بتعمل المجهود ليه shines for you مش شايف حب عيوني شو داريتك شو داريتك مش عايزة غيرك break yeah مش عايزة take إنت لي وأنا ليك خذ ماما إيه ماما ماما إيه ماما ماما إيه أعمل إيه ماما ماما ييه ماما ماما ييه ماما ييه ماما ماما ييه ماما ماما إيه ماما إيه ماما إيه break مش عايزة take إنت لي وأنا ليك خذ break مش عايزة take إنت لي وأنا ليك خذ break مش عايزة take إنت لي وأنا ليك خذ break مش عايزة take إنت لي وأنا ليك خذ آه ماما إيه ماما ماما إيه ماما ماما إيه أعمل إيه ماما ماما ييه ماما ماما ييه ماما ييه ماما ماما ييه ماما ماما إيه ماما إيه ماما إيه ماما ماما إيه ماما ماما إيه أعمل إيه ماما ماما ييه ماما ماما ييه ماما ييه ماما ماما ييه ماما ماما إيه ماما إيه ماما إيه ماما إيه ماما إيه</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
@@ -5468,13 +6620,13 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5489,9 +6641,27 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5580,27 +6750,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>AR,EN</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Casa Vince</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Gulf Girl</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>she be feeling herself smooth skin french nails girl it's so nice to meet ya lemme take you of the shelf brown noise when you walk in top 20 with my boys and it's often you smell good baby hop in i'll be the greatest amongst them watch this range pull up hop out got a house in the east for you and me imma set up the fire half naked sipping chai while you do your belly dance for me baby go ride the wave i can sense you from miles away حبيبتي يا ليلي you know that you got me mesmerised yes baby girl you got me mesmerised yeah my baby خليجية don't tease me أقولش baby come come see me oh وناسة whenever you're around me when you speak i become uneasy ملكة جمال she could get loose but it's not her style she got hermes slippers her toes so wow but she's covered up when she's in town she got that oud scent on her dripped in henna baby so cute in her little abaya go to three fils then we end up in zuma baby so sweet yeah she sweeter than sugar baby go ride the wave i can sense you from miles away حبيبتي يا ليلي you know that you got me mesmerised yes baby girl you got me mesmerised yeah baby خليجية yeah my baby خليجية خليجية خليجية yeah woah oh woah oh yeah baby girl you get me excited touching me gets me ignited put you in private gimme kiss when i stay silent ysl lips like diamonds yeah you know i like it book smart baby you the brightest accent hit me with a sidekick ain't no surprising you da main one no side chick baby turn around lemme bite it yeah baby go ride the wave i can sense you from miles away حبيبتي يا ليلي you know that you got me mesmerised yes baby girl you got me mesmerised yeah my baby خليجية خليجية خليجية yeah my baby خليجية خليجية خليجية خليجية</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>['AR', 'EN']</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Casa Vince</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Gulf Girl</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>she be feeling herself smooth skin french nails girl it's so nice to meet ya lemme take you of the shelf brown noise when you walk in top 20 with my boys and it's often you smell good baby hop in i'll be the greatest amongst them watch this range pull up hop out got a house in the east for you and me imma set up the fire half naked sipping chai while you do your belly dance for me baby go ride the wave i can sense you from miles away حبيبتي يا ليلي you know that you got me mesmerised yes baby girl you got me mesmerised yeah my baby خليجية don't tease me أقولش baby come come see me oh وناسة whenever you're around me when you speak i become uneasy ملكة جمال she could get loose but it's not her style she got hermes slippers her toes so wow but she's covered up when she's in town she got that oud scent on her dripped in henna baby so cute in her little abaya go to three fils then we end up in zuma baby so sweet yeah she sweeter than sugar baby go ride the wave i can sense you from miles away حبيبتي يا ليلي you know that you got me mesmerised yes baby girl you got me mesmerised yeah baby خليجية yeah my baby خليجية خليجية خليجية yeah woah oh woah oh yeah baby girl you get me excited touching me gets me ignited put you in private gimme kiss when i stay silent ysl lips like diamonds yeah you know i like it book smart baby you the brightest accent hit me with a sidekick ain't no surprising you da main one no side chick baby turn around lemme bite it yeah baby go ride the wave i can sense you from miles away حبيبتي يا ليلي you know that you got me mesmerised yes baby girl you got me mesmerised yeah my baby خليجية خليجية خليجية yeah my baby خليجية خليجية خليجية خليجية</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
@@ -5608,13 +6780,13 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -5629,9 +6801,27 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5676,27 +6866,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>AR,EN</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Bayou</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Dodi and Diana</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>when i'm with you it feels like we're dodi and diana i'm lucky that i have ya cuz they don't wanna see us together like dodi and diana baby i'm a hopeless romantic خلي بالك you might just see the antics يا حبيبتي أنا عاشق لجمالك ومفيش زي احساسك if i pull to your crib no rush to make it quick i made some reservations it's ok if we don't make it lets get intimate i'm london for the week girl you need some memories you can keep when i'm with you it feels like we're dodi and diana i'm lucky that i have ya cuz they don't wanna see us together like dodi and diana you're a princess i can't leave you empty handed babe يا حياتي what you want you can have it بصيلي baby feel me cuz it might be the last time you can't commit to me it's cuz of where i'm from but your body language speaks to me i know you're in love it's mutual for you i would lose it all when i'm with you it feels like we're dodi and diana i'm lucky that i have ya cuz they don't wanna see us together like dodi and diana</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>['AR', 'EN']</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Bayou</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Dodi and Diana</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>when i'm with you it feels like we're dodi and diana i'm lucky that i have ya cuz they don't wanna see us together like dodi and diana baby i'm a hopeless romantic خلي بالك you might just see the antics يا حبيبتي أنا عاشق لجمالك ومفيش زي احساسك if i pull to your crib no rush to make it quick i made some reservations it's ok if we don't make it lets get intimate i'm london for the week girl you need some memories you can keep when i'm with you it feels like we're dodi and diana i'm lucky that i have ya cuz they don't wanna see us together like dodi and diana you're a princess i can't leave you empty handed babe يا حياتي what you want you can have it بصيلي baby feel me cuz it might be the last time you can't commit to me it's cuz of where i'm from but your body language speaks to me i know you're in love it's mutual for you i would lose it all when i'm with you it feels like we're dodi and diana i'm lucky that i have ya cuz they don't wanna see us together like dodi and diana</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>1</v>
-      </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
@@ -5704,13 +6896,13 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -5725,9 +6917,27 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5795,27 +7005,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>EN,FR</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Naika</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Ma Chérie</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>we met at this bar on the beach 6' foot 3 he was looking at me eyes as blue as the waters right behind him i could feel he was looking at me i could feel this intense energy surely enough we were both struck by the lighting i wish i could take him home with me he'd look good under california trees when we danced to his foreign melody bodies in time that's when he said to me ma chérie ma chérie you and me c'est love pour la vie oh jolie it was so good to meet you oh merci for all that we've been through ma chérie ma chérie i will never forget c'est promis oh jolie it was so good to meet you oh merci for all that we've been through ma chérie reminiscing when we used to be sipping piña colada so sweet under the lust and the moonshine right behind him i wish i just took him home with me he'd look good under california trees when we danced to his foreign melody bodies in time that's when he said to me ma chérie ma chérie you and me c'est love pour la vie oh jolie it was so good to meet you oh merci for all that we've been through ma chérie ma chérie i will never forget c'est promis oh jolie it was so good to meet you oh merci for all that we've been through ma chérie toi et moi on fait n'importe quoi tu m'a mis dans tous mes etats et voila qu'tu t'en vas deja toi et moi on fait n'importe quoi chu m'a mis dans tous mes etats et voila chu t'en vas deja he told me ma chérie ma chérie you and me c'est love pour la vie oh jolie it was so good to meet you oh merci for all that we've been through ma chérie ma chérie i will never forget c'est promis oh jolie it was so good to meet you oh merci for all that we've been through ma chérie toi et moi on fait n'importe quoi tu m'a mis dans tous mes etats oh oui-oui chu t'en vas deja toi et moi on fait n'importe quoi chu m'a mis dans tous mes etats oh oui-oui chu t'en vas deja</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>['EN', 'FR']</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Naika</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Ma Chérie</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>we met at this bar on the beach 6' foot 3 he was looking at me eyes as blue as the waters right behind him i could feel he was looking at me i could feel this intense energy surely enough we were both struck by the lighting i wish i could take him home with me he'd look good under california trees when we danced to his foreign melody bodies in time that's when he said to me ma chérie ma chérie you and me c'est love pour la vie oh jolie it was so good to meet you oh merci for all that we've been through ma chérie ma chérie i will never forget c'est promis oh jolie it was so good to meet you oh merci for all that we've been through ma chérie reminiscing when we used to be sipping piña colada so sweet under the lust and the moonshine right behind him i wish i just took him home with me he'd look good under california trees when we danced to his foreign melody bodies in time that's when he said to me ma chérie ma chérie you and me c'est love pour la vie oh jolie it was so good to meet you oh merci for all that we've been through ma chérie ma chérie i will never forget c'est promis oh jolie it was so good to meet you oh merci for all that we've been through ma chérie toi et moi on fait n'importe quoi tu m'a mis dans tous mes etats et voila qu'tu t'en vas deja toi et moi on fait n'importe quoi chu m'a mis dans tous mes etats et voila chu t'en vas deja he told me ma chérie ma chérie you and me c'est love pour la vie oh jolie it was so good to meet you oh merci for all that we've been through ma chérie ma chérie i will never forget c'est promis oh jolie it was so good to meet you oh merci for all that we've been through ma chérie toi et moi on fait n'importe quoi tu m'a mis dans tous mes etats oh oui-oui chu t'en vas deja toi et moi on fait n'importe quoi chu m'a mis dans tous mes etats oh oui-oui chu t'en vas deja</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
@@ -5826,13 +7038,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -5844,9 +7056,27 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5887,27 +7117,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>AR,EN</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Balak</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Zeyne and aint Saint levant</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>كيف أسهل بعدك ما بيهون وزاد الحمل علي ليل ونهاري شوقك يا بلوم يا بكتم اللي جواي مشتاق زي طل عليك النوم سهرانة طول الليل وبفكر فيك مشتاق زي ليش أذوق الحب اليوم وأنت هناك وأنا هون أنا حظي أضيع بهواك وأتوه وأعيش بلاك ليه بالك مكان ها القد بعيد ها القد بعيد أنا حظي أضيع بهواك وأتوه وأعيش بلاك وأنا مالي ليه أحب بعيد أحب بعيد yeah حبيبتي أنا فاهمك yeah ويا ريتني أنا سابقك i know you see the follow backs oh no yeah بس فيش حد بينافسك you know i come alive in the moonlight quand tu rentre dans mes bras c'est la lowlife i can't let nobody get in our way ten hours but it's never too late so baby مشتاق زي مشتاق أنا ماسك فيك مشتاق وأنا ماسك في أنا مشتاق زي ليش أذوق الحب اليوم وأنت هناك وأنا هون أنا حظي أضيع بهواك وأتوه وأعيش بلاك ليه بالك مكان ها القد بعيد ها القد بعيد أنا حظي أضيع بحلاك وأفيق وأنا ماني معاك وأنا مالي ليه أحب بعيد أحب بعيد لو يحميني لو يحميني قلبي وينسيني قلبي وينسيني بعد المشوار بعد المشوار لو يكفيني لو يكفيني الكلام ويراضيني الكلام ويراضيني لو ما نختار آلم المسار أنا حظي أضيع بهواك مشتاق وأتوه وأعيش بلاك ليه بالك مكان ها القد بعيد ها القد بعيد أنا حظي أضيع بهواك وأتوه وأعيش بلاك وأنا مالي ليه أحب بعيد أحب بعيد</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>['AR', 'EN']</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Balak</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Zeyne and aint Saint levant</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>كيف أسهل بعدك ما بيهون وزاد الحمل علي ليل ونهاري شوقك يا بلوم يا بكتم اللي جواي مشتاق زي طل عليك النوم سهرانة طول الليل وبفكر فيك مشتاق زي ليش أذوق الحب اليوم وأنت هناك وأنا هون أنا حظي أضيع بهواك وأتوه وأعيش بلاك ليه بالك مكان ها القد بعيد ها القد بعيد أنا حظي أضيع بهواك وأتوه وأعيش بلاك وأنا مالي ليه أحب بعيد أحب بعيد yeah حبيبتي أنا فاهمك yeah ويا ريتني أنا سابقك i know you see the follow backs oh no yeah بس فيش حد بينافسك you know i come alive in the moonlight quand tu rentre dans mes bras c'est la lowlife i can't let nobody get in our way ten hours but it's never too late so baby مشتاق زي مشتاق أنا ماسك فيك مشتاق وأنا ماسك في أنا مشتاق زي ليش أذوق الحب اليوم وأنت هناك وأنا هون أنا حظي أضيع بهواك وأتوه وأعيش بلاك ليه بالك مكان ها القد بعيد ها القد بعيد أنا حظي أضيع بحلاك وأفيق وأنا ماني معاك وأنا مالي ليه أحب بعيد أحب بعيد لو يحميني لو يحميني قلبي وينسيني قلبي وينسيني بعد المشوار بعد المشوار لو يكفيني لو يكفيني الكلام ويراضيني الكلام ويراضيني لو ما نختار آلم المسار أنا حظي أضيع بهواك مشتاق وأتوه وأعيش بلاك ليه بالك مكان ها القد بعيد ها القد بعيد أنا حظي أضيع بهواك وأتوه وأعيش بلاك وأنا مالي ليه أحب بعيد أحب بعيد</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
@@ -5915,13 +7147,13 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -5936,9 +7168,27 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6013,27 +7263,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>AR,EN,FR</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Very Few Friends</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Saint Levant</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>listen i'm not toxic i'm broken baby or maybe i'm just saying that got a bad lil' ting من المغرب تستني علي she knows where i'm staying at قلتلها تجيلي علي امريكا بس ما عندها فيزا فقلتلها تلاقيني بمرسيليا vas y fais tes valises et retrouve moi dans le sud de la france و الفريق حولية 'cause uh lover boy levant back in the building viens chez moi vas y we - till the morning demain soir on va tester ça après ça sera la dernière fois 'cause gotta focus on the vision baby next year i'll be on fifa ah t'as kiffé that i'm driven baby well the thing is i have very few friends i'm focused and have very few friends self-respect with some green eyes and that sun tan يا عيني عليكي self-made now you're self paid with your own plans يلا مر علي بيتي your family was so proud of you لما تركت البلاد بيبي سلمي علي سيدو و سلمي علي تيتا و سلمي علي جاد اخوكي we have designer sex in the morning expensive when you're moaning hop on a zoom call for an hour then come back to show you who own it fly you to beirut for the wintertime don't post about it online okay took her to dinner in hamra and one thing she kept telling me she has very few friends she's focused and has very few friends فقلتلها you take away all my focus but i'm down gotta bring you back to my town طيارة دغري علي بلادي و اكيد i'll show you around bienvenue dans mon quartier sur son bracelet c'est du cartier elle veux que je lui parle en français i wanna take you to paris and spoil you i wanna go to marseille and enjoy you i want those guys in your dms to talk to themselves and then tell all their friends that they know you i wanna make you forget about your ex i want you overthinking all your texts i want the neighbors to hear you yell told me she's a ceo i can tell so you do you and i'll do me but when we come together it's when we come together it's a fucking problem</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>['AR', 'EN', 'FR']</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Very Few Friends</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Saint Levant</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>listen i'm not toxic i'm broken baby or maybe i'm just saying that got a bad lil' ting من المغرب تستني علي she knows where i'm staying at قلتلها تجيلي علي امريكا بس ما عندها فيزا فقلتلها تلاقيني بمرسيليا vas y fais tes valises et retrouve moi dans le sud de la france و الفريق حولية 'cause uh lover boy levant back in the building viens chez moi vas y we - till the morning demain soir on va tester ça après ça sera la dernière fois 'cause gotta focus on the vision baby next year i'll be on fifa ah t'as kiffé that i'm driven baby well the thing is i have very few friends i'm focused and have very few friends self-respect with some green eyes and that sun tan يا عيني عليكي self-made now you're self paid with your own plans يلا مر علي بيتي your family was so proud of you لما تركت البلاد بيبي سلمي علي سيدو و سلمي علي تيتا و سلمي علي جاد اخوكي we have designer sex in the morning expensive when you're moaning hop on a zoom call for an hour then come back to show you who own it fly you to beirut for the wintertime don't post about it online okay took her to dinner in hamra and one thing she kept telling me she has very few friends she's focused and has very few friends فقلتلها you take away all my focus but i'm down gotta bring you back to my town طيارة دغري علي بلادي و اكيد i'll show you around bienvenue dans mon quartier sur son bracelet c'est du cartier elle veux que je lui parle en français i wanna take you to paris and spoil you i wanna go to marseille and enjoy you i want those guys in your dms to talk to themselves and then tell all their friends that they know you i wanna make you forget about your ex i want you overthinking all your texts i want the neighbors to hear you yell told me she's a ceo i can tell so you do you and i'll do me but when we come together it's when we come together it's a fucking problem</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
@@ -6041,16 +7293,16 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -6062,9 +7314,27 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6127,27 +7397,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>AR,EN,FR</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>I guess</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Saint Levant</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>i know you've been thinking of us while you're living it up while you're living it up baby you said it was never enough and now you're thinking of us in the club but i guess guess you know it all don't you baby i guess i don't know shit said i like the way that you talk to me i like the way you go far for me i like the way that you look in my eyes and say i want you inside of me said i like the way that you talk to me i like the way you go far for me i like the way that you look in my eyes and say you wanna get on top of me بقلها ببي على مهلك بقلها ببي أنا فاهمك بقلها ببي على مهلك بس و حياة أمي أني فاهمك أنا فاهمك أنا فاهمك okay okay said i got a lot on my mind and i gotta share the pain okay okay i got a lot on my mind and i gotta share the pain okay okay i don't think you really want me baby i don't think you really want me baby but if you do okay okay i was seventeen when i left home timbaland in my headphones now it's just malik and pedro and we uh ooh i don't think you really want me baby i don't think you really want me baby but if you do okay okay i know you've been thinking of us while you're living it up while you're living it up baby you said it was never enough and now you're thinking of us in the club i guess i guess you know it all don't you baby i guess i don't know shit i don't know shit i said i heard that come on and play that back i'm really feeling that i've been around the world it's just a regular two man show i said i heard that come on and play that back i'm really feeling that i've been around the world it's just a regular two man show</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>['AR', 'EN', 'FR']</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>I guess</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Saint Levant</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>i know you've been thinking of us while you're living it up while you're living it up baby you said it was never enough and now you're thinking of us in the club but i guess guess you know it all don't you baby i guess i don't know shit said i like the way that you talk to me i like the way you go far for me i like the way that you look in my eyes and say i want you inside of me said i like the way that you talk to me i like the way you go far for me i like the way that you look in my eyes and say you wanna get on top of me بقلها ببي على مهلك بقلها ببي أنا فاهمك بقلها ببي على مهلك بس و حياة أمي أني فاهمك أنا فاهمك أنا فاهمك okay okay said i got a lot on my mind and i gotta share the pain okay okay i got a lot on my mind and i gotta share the pain okay okay i don't think you really want me baby i don't think you really want me baby but if you do okay okay i was seventeen when i left home timbaland in my headphones now it's just malik and pedro and we uh ooh i don't think you really want me baby i don't think you really want me baby but if you do okay okay i know you've been thinking of us while you're living it up while you're living it up baby you said it was never enough and now you're thinking of us in the club i guess i guess you know it all don't you baby i guess i don't know shit i don't know shit i said i heard that come on and play that back i'm really feeling that i've been around the world it's just a regular two man show i said i heard that come on and play that back i'm really feeling that i've been around the world it's just a regular two man show</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
@@ -6155,16 +7427,16 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -6176,9 +7448,27 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6237,27 +7527,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>AR,EN,FR</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Here and There</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Saint Levant</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>baby see me need you to see me why won't you see me girl come see me i've been running rounds rounds rounds around the world and i can't stop these days i know i won't back up these days i know i won't stop it these days i wanna be more be more oh more you said you wanna find yourself find yourself said you wanna find yourself more but instead you are wasting time here and there الكره جاي من الطرفين إيدي في إيدك مستغربة ليه بعاد عن بعض ومش عارف ليه الدنيا صغيرة بس الغربة وين that's why i never let my past go even though it's blank pages on the passport she doesn't like seeing the fast growth but time moves slowly on the glass boats so many lows whеn i go look back nobody knows what i burn in ash the life i left outsidе baby can't back out here this they can't save me i never meant to be this way i was supposed to be in class on my a game and my daddy doesn't understand what i do running two tracks loud like a haiku you might also like kill bill sza next up - s3-e19 mixtape madness bully b nd  kayykayy vampire olivia rodrigo third culture kid the world and god gave me options one way flight i'm taking the nonstop trip which city do i wanna go and get lost in which city do i wanna go and get lost in third culture kid the world and god gave me options one way flight i'm taking the nonstop trip which city do i wanna go and get lost in which city do i wanna go and get lost in he was here he was there he would fit anywhere in the city by the sea and it's coming back to me</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>['AR', 'EN', 'FR']</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Here and There</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Saint Levant</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>baby see me need you to see me why won't you see me girl come see me i've been running rounds rounds rounds around the world and i can't stop these days i know i won't back up these days i know i won't stop it these days i wanna be more be more oh more you said you wanna find yourself find yourself said you wanna find yourself more but instead you are wasting time here and there الكره جاي من الطرفين إيدي في إيدك مستغربة ليه بعاد عن بعض ومش عارف ليه الدنيا صغيرة بس الغربة وين that's why i never let my past go even though it's blank pages on the passport she doesn't like seeing the fast growth but time moves slowly on the glass boats so many lows whеn i go look back nobody knows what i burn in ash the life i left outsidе baby can't back out here this they can't save me i never meant to be this way i was supposed to be in class on my a game and my daddy doesn't understand what i do running two tracks loud like a haiku you might also like kill bill sza next up - s3-e19 mixtape madness bully b nd  kayykayy vampire olivia rodrigo third culture kid the world and god gave me options one way flight i'm taking the nonstop trip which city do i wanna go and get lost in which city do i wanna go and get lost in third culture kid the world and god gave me options one way flight i'm taking the nonstop trip which city do i wanna go and get lost in which city do i wanna go and get lost in he was here he was there he would fit anywhere in the city by the sea and it's coming back to me</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
@@ -6265,16 +7557,16 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -6286,9 +7578,27 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6349,27 +7659,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>AR,EN,FR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>FaceTime</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Saint Levant</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>baby this is way better than a facetime nine hour difference but you still mine uh and i don't usually like to waste time but you can waste mine you can waste mine uh i'm inspired by the way your daughter walks in the room heads start turnin' when they smell the perfume you should be proud auntie look at her go in two more years i'll have my knee on the floor 'cause i don't want a grammy i want a family four daughters one son why you laughing i want a house on the hills on the coast of brazil baby could you be the one yeah i can babe you understand me uh so you know i that i don't really wanna take you to miami i'd rather go tunisia and just turn off our phones oublie l'amérique on fera un vrai tour du monde بفكر بأيامنا مش عارف أعيش بدونك اه يخربيت الخضر في عيونك قلتلك آسف شكلك ناسية كيف كنت ماسكك baby 'cause baby this is way better than a facetime nine hour difference but you still mine uh and i don't usually like to waste time but you can waste mine you can waste mine baby this is way better than a facetime nine hour difference but you still mine uh and i don't usually like to waste time but you can waste mine you can waste mine uh j'ai eu le privilège de rêver cet été le problème c'est que j'savais pas confesser que je t'aimais donc chérie je t'ai laissé j'ai promis à mon frère de pas m'arrêter la différence c'est que je suis et toi tu étais tu suis et puis tu follow pourquoi t'es toujours pressée apprécie c'que tu as au lieu d'la jouer à faire le stressé et moi je taffais solo pendant que vous sortiez fêter mon pays sur mon dos et bébé je les ai tous fait rêver girl i said oh yeah yeah you know what you mean to me i know just who you could be told you girl i said oh yeah yeah you know what you mean to me you know what you need and it isn't me but baby this is way better than a facetime nine hour difference but you still mine uh and i don't usually like to waste time but you can waste mine you can waste mine baby this is way better than a facetime nine hour difference but you still mine uh and i don't usually like to waste time but you can waste mine you can waste mine</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>['AR', 'EN', 'FR']</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>FaceTime</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Saint Levant</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>baby this is way better than a facetime nine hour difference but you still mine uh and i don't usually like to waste time but you can waste mine you can waste mine uh i'm inspired by the way your daughter walks in the room heads start turnin' when they smell the perfume you should be proud auntie look at her go in two more years i'll have my knee on the floor 'cause i don't want a grammy i want a family four daughters one son why you laughing i want a house on the hills on the coast of brazil baby could you be the one yeah i can babe you understand me uh so you know i that i don't really wanna take you to miami i'd rather go tunisia and just turn off our phones oublie l'amérique on fera un vrai tour du monde بفكر بأيامنا مش عارف أعيش بدونك اه يخربيت الخضر في عيونك قلتلك آسف شكلك ناسية كيف كنت ماسكك baby 'cause baby this is way better than a facetime nine hour difference but you still mine uh and i don't usually like to waste time but you can waste mine you can waste mine baby this is way better than a facetime nine hour difference but you still mine uh and i don't usually like to waste time but you can waste mine you can waste mine uh j'ai eu le privilège de rêver cet été le problème c'est que j'savais pas confesser que je t'aimais donc chérie je t'ai laissé j'ai promis à mon frère de pas m'arrêter la différence c'est que je suis et toi tu étais tu suis et puis tu follow pourquoi t'es toujours pressée apprécie c'que tu as au lieu d'la jouer à faire le stressé et moi je taffais solo pendant que vous sortiez fêter mon pays sur mon dos et bébé je les ai tous fait rêver girl i said oh yeah yeah you know what you mean to me i know just who you could be told you girl i said oh yeah yeah you know what you mean to me you know what you need and it isn't me but baby this is way better than a facetime nine hour difference but you still mine uh and i don't usually like to waste time but you can waste mine you can waste mine baby this is way better than a facetime nine hour difference but you still mine uh and i don't usually like to waste time but you can waste mine you can waste mine</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
@@ -6377,16 +7689,16 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -6398,9 +7710,27 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6445,44 +7775,46 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>AR,FR</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DELLALI </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Hamza</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>تقادا جهدي لميمة خلاتني لوحدي تڨول غي شي هبيل ولي فڨلبي غانڨولو واخا لقدر ماشي بيدي كية مور كية خديت شلا ضربة على لقرقوبي وعلى لهية كيهربو عليا يا دانداني بلدية رزقي فيديا سمعيني حبيني نهار نعرف فيني نجيك خاتم فيدي خليني خليني نجيب موكة فيدي اووه-واه رباتني الزنقة بالأقراص خلاتني بلا bac كندير لي باغي داواتني بنبتة فالأوراق عمراتلي كاس ونسيت ديك لي باغي دلالي وايا دلالي غانديك لمالطا نسيك فعدابي ليالي جوان وخيالي وأقوالي وراوني طريق أموالي j'ai mis ma salope sur la té-cô comme saka à london un homme c'est plus un homme si son gang l'abandonne elle faisait trop بلعاني maintenant rien qu'elle me mentionne comme à campton y'a que les guitares qui pardonnent خليتيني أنا ونتي في ڨلبي حبيبتي dis-moi كيفاش ça fait des semaines que suis sur l'ivresse j'leur mets des vitesses ah-ah-ah business and business ah ah-ah-ah il suffit d'un petit geste ah ah-ah-ah j'ai fait des millions mais j'ai la daronne avec moi c'est ma seul richesse ah-ah-ah business and business ah ah-ah-ah il suffit d'un petit geste ah ah-ah-ah j'ai fait des millions mais j'ai la daronne avec moi c'est ma seul richesse</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>['AR', 'FR']</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DELLALI </t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Hamza</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>تقادا جهدي لميمة خلاتني لوحدي تڨول غي شي هبيل ولي فڨلبي غانڨولو واخا لقدر ماشي بيدي كية مور كية خديت شلا ضربة على لقرقوبي وعلى لهية كيهربو عليا يا دانداني بلدية رزقي فيديا سمعيني حبيني نهار نعرف فيني نجيك خاتم فيدي خليني خليني نجيب موكة فيدي اووه-واه رباتني الزنقة بالأقراص خلاتني بلا bac كندير لي باغي داواتني بنبتة فالأوراق عمراتلي كاس ونسيت ديك لي باغي دلالي وايا دلالي غانديك لمالطا نسيك فعدابي ليالي جوان وخيالي وأقوالي وراوني طريق أموالي j'ai mis ma salope sur la té-cô comme saka à london un homme c'est plus un homme si son gang l'abandonne elle faisait trop بلعاني maintenant rien qu'elle me mentionne comme à campton y'a que les guitares qui pardonnent خليتيني أنا ونتي في ڨلبي حبيبتي dis-moi كيفاش ça fait des semaines que suis sur l'ivresse j'leur mets des vitesses ah-ah-ah business and business ah ah-ah-ah il suffit d'un petit geste ah ah-ah-ah j'ai fait des millions mais j'ai la daronne avec moi c'est ma seul richesse ah-ah-ah business and business ah ah-ah-ah il suffit d'un petit geste ah ah-ah-ah j'ai fait des millions mais j'ai la daronne avec moi c'est ma seul richesse</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -6497,6 +7829,24 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6565,27 +7915,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>ES,EN</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Kali Uchis</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>igual que un angel</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>you should've seen the way she looked igual que un ángel heaven's her residence y ella no se va a caer they just can't reach her princesita inalcanzable le rompieron el cora' pero nunca se la perdió oh todos quieren plata otros quieren fama un amor superficial pero ella quiere calma no dañar su alma nunca se olvida de lo real un corazón como el tuyo está en extinció-o-on heaven must have sent you love un corazón como el tuyo está en extinció-o-on heaven must have sent you love la favorita de dios la favorita de dios and it shows sent from heaven down to earth la favorita de dios la favorita de dios and she knows sent from heaven down to earth ya le juraron amor y le fallaron ojitos secos de todo lo que lloraron pero ella no se rinde sonríe aunque le duela porque personas como ella ya no quedan todos quieren plata otros quieren fama un amor superficial pero ella quiere calma no dañar su alma nunca se olvida de lo real un corazón como el tuyo está en extinció-o-on heaven must have sent you love un corazón como el tuyo está en extinció-o-on heaven must have sent you love la favorita de dios la favorita de dios and it shows sent from heaven down to earth la favorita de dios la favorita de dios and she knows sent from heaven down to earth uh con esa actitud nadie la merece el que la quiera que rece porque ella es luz ay nada que ver no está a tu alcance la nena es un ángel todos quieren plata otros quieren fama un amor superficial pero ella quiere calma no dañar su alma nunca se olvida de lo real un corazón como el tuyo está en extinció-o-on heaven must have sent you love un corazón como el tuyo está en extinció-o-on heaven must have sent you love la favorita de dios la favorita de dios and it shows sent from heaven down to earth la favorita de dios la favorita de dios and she knows sent from heaven down to earth la favorita de dios la favorita de dios</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>['ES', 'EN']</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Kali Uchis</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>igual que un angel</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>you should've seen the way she looked igual que un ángel heaven's her residence y ella no se va a caer they just can't reach her princesita inalcanzable le rompieron el cora' pero nunca se la perdió oh todos quieren plata otros quieren fama un amor superficial pero ella quiere calma no dañar su alma nunca se olvida de lo real un corazón como el tuyo está en extinció-o-on heaven must have sent you love un corazón como el tuyo está en extinció-o-on heaven must have sent you love la favorita de dios la favorita de dios and it shows sent from heaven down to earth la favorita de dios la favorita de dios and she knows sent from heaven down to earth ya le juraron amor y le fallaron ojitos secos de todo lo que lloraron pero ella no se rinde sonríe aunque le duela porque personas como ella ya no quedan todos quieren plata otros quieren fama un amor superficial pero ella quiere calma no dañar su alma nunca se olvida de lo real un corazón como el tuyo está en extinció-o-on heaven must have sent you love un corazón como el tuyo está en extinció-o-on heaven must have sent you love la favorita de dios la favorita de dios and it shows sent from heaven down to earth la favorita de dios la favorita de dios and she knows sent from heaven down to earth uh con esa actitud nadie la merece el que la quiera que rece porque ella es luz ay nada que ver no está a tu alcance la nena es un ángel todos quieren plata otros quieren fama un amor superficial pero ella quiere calma no dañar su alma nunca se olvida de lo real un corazón como el tuyo está en extinció-o-on heaven must have sent you love un corazón como el tuyo está en extinció-o-on heaven must have sent you love la favorita de dios la favorita de dios and it shows sent from heaven down to earth la favorita de dios la favorita de dios and she knows sent from heaven down to earth la favorita de dios la favorita de dios</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
@@ -6593,13 +7945,13 @@
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -6614,9 +7966,27 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6677,27 +8047,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>ES,EN</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Kali Uchis</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Moonlight</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>i just wanna get high with my lover veo una muñeca cuando miro en el espejo kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight i just wanna get high with my lover veo una muñeca cuando miro en el espejo kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight forget the small talk the surface level ain’t much that i care for putting on my lip gloss i saw you stare from my peripheral yeah baby it’s been a hell of a day but i know a place we can escape find out how it feels to let go of everything be free when you’re here with me i just wanna get high with my lover veo una muñeca cuando miro en el espejo kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight i just wanna get high with my lover veo una muñeca cuando miro en el espejo kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight there’s nothing like peace of mind and you take the time to make sure that i’m okay i know i can put stress on your brain you still love me put no one above me you always go out of your way to show me that i’m your priority find out how it feels to let go of everything be free when you’re here with me i just wanna get high with my lover veo una muñeca cuando miro en el espejo i just wanna get high with my lover kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight i just wanna get high with my lover get high veo una muñeca cuando miro en el espejo high with my lover kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight get higher with you get higher and higher with you let’s go to the moon and leave behind all that how does it feel here by my side getting higher and higher under the moonlight’s glow there’s nowhere we won’t go together go higher and higher no-no-nowhere we won’t go</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>['ES', 'EN']</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Kali Uchis</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Moonlight</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>i just wanna get high with my lover veo una muñeca cuando miro en el espejo kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight i just wanna get high with my lover veo una muñeca cuando miro en el espejo kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight forget the small talk the surface level ain’t much that i care for putting on my lip gloss i saw you stare from my peripheral yeah baby it’s been a hell of a day but i know a place we can escape find out how it feels to let go of everything be free when you’re here with me i just wanna get high with my lover veo una muñeca cuando miro en el espejo kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight i just wanna get high with my lover veo una muñeca cuando miro en el espejo kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight there’s nothing like peace of mind and you take the time to make sure that i’m okay i know i can put stress on your brain you still love me put no one above me you always go out of your way to show me that i’m your priority find out how it feels to let go of everything be free when you’re here with me i just wanna get high with my lover veo una muñeca cuando miro en el espejo i just wanna get high with my lover kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight i just wanna get high with my lover get high veo una muñeca cuando miro en el espejo high with my lover kiss kiss looking dolly i think i may go out tonight i just wanna ride get high in the moonlight get higher with you get higher and higher with you let’s go to the moon and leave behind all that how does it feel here by my side getting higher and higher under the moonlight’s glow there’s nowhere we won’t go together go higher and higher no-no-nowhere we won’t go</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
@@ -6705,13 +8077,13 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6726,9 +8098,27 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,27 +8168,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>ES,EN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Kali Uchis</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>telepatia</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>quién lo diría que se podría hacer el amor por telepatía la luna está llena mi cama vacía lo que yo te haría si te tuviera de frente la mente te la volaría de noche y de día de noche y de día you know i'm just a flight away if you want it you can take a private plane a kilómetros estamos conectando y me prendes aunque no me estés tocando you know i got a lot to say all these voices in the background of my brain y me dicen todo lo que estás pensando me imagino lo que ya estás maquinando quién lo diría que se podría hacer el amor por telepatía la luna está llena mi cama vacía lo que yo te haría si te tuviera de frente la mente te la volaría de noche y de día de noche y de día you know that i can see right through you i can read your mind i can read your mind what you want to do it's written all over your face times two 'cause i can read your mind i can read your mind i can hear your thoughts like a melody listen while you talk when you're fast asleep you stay on the phone just to hear me breathe on repeat quién lo diría que se podría hacer el amor por telepatía la luna está llena mi cama vacía lo que yo te haría si te tuviera de frente la mente te la volaría de noche y de día de noche y de día you know i got a lot to say all these voices in the background of my brain</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>['ES', 'EN']</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Kali Uchis</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>telepatia</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>quién lo diría que se podría hacer el amor por telepatía la luna está llena mi cama vacía lo que yo te haría si te tuviera de frente la mente te la volaría de noche y de día de noche y de día you know i'm just a flight away if you want it you can take a private plane a kilómetros estamos conectando y me prendes aunque no me estés tocando you know i got a lot to say all these voices in the background of my brain y me dicen todo lo que estás pensando me imagino lo que ya estás maquinando quién lo diría que se podría hacer el amor por telepatía la luna está llena mi cama vacía lo que yo te haría si te tuviera de frente la mente te la volaría de noche y de día de noche y de día you know that i can see right through you i can read your mind i can read your mind what you want to do it's written all over your face times two 'cause i can read your mind i can read your mind i can hear your thoughts like a melody listen while you talk when you're fast asleep you stay on the phone just to hear me breathe on repeat quién lo diría que se podría hacer el amor por telepatía la luna está llena mi cama vacía lo que yo te haría si te tuviera de frente la mente te la volaría de noche y de día de noche y de día you know i got a lot to say all these voices in the background of my brain</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
@@ -6806,13 +8198,13 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6827,9 +8219,27 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6910,27 +8320,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>ES,EN</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Feid</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>BABALU</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>another banger ya no quiero estar sin ti farrear no es lo mismo si no estás aquí no me di cuenta y te perdí tú te estaba' alejando y yo nunca lo vi dulcecita flow trululu cremita de coconut un masajito pa' que después me suelte ese bubbaloo la cama hace tu-tu-tu pa' mí que me hizo vudú de toa' las mujere' que hay en el mundo la más chimba eres tú me hace' falta tú tú tú tú tú a tu foto le hago zoom zoom zoom zoom zoom qué rico ese bubbaloo -loo -loo -loo -loo el coro dice ru ru ru ru ru dulcecita flow trululu cremita de coconut ah un masajito pa' que después me suelte ese bubbaloo la cama hace tu-tu-tu pa' mí que me hizo vudú ah de toa' las mujere' que hay en el mundo la más chimba eres tú yeah ese culito en el jetski en montego bay de champán toda' la moet se quitó el kini y se le ve to' por el agua cristalina y yo con par de tragos encima tocándote underwater en la otra mano un caipirinha pidió vape pa' volar le roté y enseguida se prendió y qué rico pasé cuando te vi en benidorm en el mar se enganchó las oakley nos parchamo' en el hotel la probé y es dulcecita flow trululu cremita de coconut un masajito pa' que después me suelte ese bubbaloo la cama hace tu-tu-tu pa' mí que me hizo vudú de toa' las mujere' que hay en el mundo la más chimba eres tú uh omoge na one of one uh wetin you put for your back omo any girl like you omoge no one when you no dey by my side i dey miss you die baby oh na your matter i dey carry for my head alone i dey miss you my baby oromao there's something about her ah baby girl you confirm if e no be her then me no want am me thank jah for the day wey me and her jam there's something about that day wey we start all the kissing yeah sexing yeah-yeah cuddling yeah recording this got me yearning if you got another man i'll be celosa me just want you make you come ku lo sa dulcecita flow trululu cremita de coconut un masajito pa' que después me suelte ese bubbaloo -bbaloo -bba la cama hace tu-tu-tu uh pa' mí que me hizo vudú ah de toa' las mujere' que hay en el mundo la más chimba eres tú me hace' falta tú tú tú tú tú yeah-yeah a tu foto le hago zoom zoom zoom zoom zoom yeah qué rico ese bubbaloo -loo -loo -loo -loo contigo el cielo era azul -zul -zul -zul dulcecita flow trululu cremita de coconut un masajito pa' que después me suelte ese bubbaloo</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>['ES', 'EN']</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Feid</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>BABALU</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>another banger ya no quiero estar sin ti farrear no es lo mismo si no estás aquí no me di cuenta y te perdí tú te estaba' alejando y yo nunca lo vi dulcecita flow trululu cremita de coconut un masajito pa' que después me suelte ese bubbaloo la cama hace tu-tu-tu pa' mí que me hizo vudú de toa' las mujere' que hay en el mundo la más chimba eres tú me hace' falta tú tú tú tú tú a tu foto le hago zoom zoom zoom zoom zoom qué rico ese bubbaloo -loo -loo -loo -loo el coro dice ru ru ru ru ru dulcecita flow trululu cremita de coconut ah un masajito pa' que después me suelte ese bubbaloo la cama hace tu-tu-tu pa' mí que me hizo vudú ah de toa' las mujere' que hay en el mundo la más chimba eres tú yeah ese culito en el jetski en montego bay de champán toda' la moet se quitó el kini y se le ve to' por el agua cristalina y yo con par de tragos encima tocándote underwater en la otra mano un caipirinha pidió vape pa' volar le roté y enseguida se prendió y qué rico pasé cuando te vi en benidorm en el mar se enganchó las oakley nos parchamo' en el hotel la probé y es dulcecita flow trululu cremita de coconut un masajito pa' que después me suelte ese bubbaloo la cama hace tu-tu-tu pa' mí que me hizo vudú de toa' las mujere' que hay en el mundo la más chimba eres tú uh omoge na one of one uh wetin you put for your back omo any girl like you omoge no one when you no dey by my side i dey miss you die baby oh na your matter i dey carry for my head alone i dey miss you my baby oromao there's something about her ah baby girl you confirm if e no be her then me no want am me thank jah for the day wey me and her jam there's something about that day wey we start all the kissing yeah sexing yeah-yeah cuddling yeah recording this got me yearning if you got another man i'll be celosa me just want you make you come ku lo sa dulcecita flow trululu cremita de coconut un masajito pa' que después me suelte ese bubbaloo -bbaloo -bba la cama hace tu-tu-tu uh pa' mí que me hizo vudú ah de toa' las mujere' que hay en el mundo la más chimba eres tú me hace' falta tú tú tú tú tú yeah-yeah a tu foto le hago zoom zoom zoom zoom zoom yeah qué rico ese bubbaloo -loo -loo -loo -loo contigo el cielo era azul -zul -zul -zul dulcecita flow trululu cremita de coconut un masajito pa' que después me suelte ese bubbaloo</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
@@ -6938,13 +8350,13 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6959,9 +8371,27 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7068,27 +8498,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>EN,KO</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>asepa</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ya ya i'm the drama ziggy-ziggy-zag i'm new 'cause i go biggie biggie bad it's true 날카로운 눈 안에 비친 toxic 내 본능을 당겨 zoom hold up what oh my god you say what 다쳐 넌 you better watch out 우린 이미 거센 boom 달려가고 있어 vroom i li-li like me when i roll li-li-like me when i'm savage li-li-like me when i go li-li-likie when i baddest uh-huh hold up 빛을 따라서 mm 달아 다 다 달려나가 run go finally ra-ta-ta-ta 다 다 다음 세계를 열어 난 one two it's time to go 후회 없어 난 맞서 난 깨버렸지 날 따라서 움직일 rules 손끝으로 세상을 두드려 움직여 yeah i'm coming i bring i bring all the drama-ma-ma-ma hey hey i bring drama-ma-ma-ma hey hey with my girls in the back girls in the back drama trauma-ma-ma-ma hey hey i break trauma-ma-ma-ma hey hey with my world in the back 나로 시작되는 drama all that drama-ma-ma-ma bring it that drama-ma-ma-ma with my girls in the back girls in the back yeah i break trauma-ma-ma-ma we them trauma-ma-ma-ma with my world in the back 나로 시작되는 drama drama drama-ma-ma-ma drama-ma-ma-ma three two one drama-ma-ma you know i've been kind of like one two three yeah yeah 깜짝 놀랄 다음 scene what what 키를 거머쥔 주인공은 나 uh four three two going down 쉽게 through yeah deja vu 같이 그려지는 이미지 날 굳이 막지 말아 이건 내 drama 도발은 굳이 안 막아 uh i'm a stunner one two it's time to go 타오르는 날 타는 날 느껴 난 and i love it 새로워지는 rules 난 눈을 떠 두 눈을 떠 시작된 걸 넌 알아 now it's coming i bring i bring all the drama-ma-ma-ma i bring drama-ma-ma-ma with my girls in the back girls in the back drama trauma-ma-ma-ma i break trauma-ma-ma-ma with my world in the back 나로 시작되는 drama into the real world 다가온 climax 두려워하지 마 whoa you and i oh yeah 함께 써 내려가는 story oh yeah 날 가로막았던 no oh 한계를 뛰어 넘어 every day oh i'ma make it my way out of the way yeah oh yeah i bring i bring all the drama-ma-ma-ma hey hey i bring drama-ma-ma-ma oh oh-oh-oh with my girls in the back girls in the back drama trauma-ma-ma-ma trauma-ma-ma-ma hey hey i break trauma-ma-ma-ma trauma-ma-ma-ma hey hey with my world in the back 나와 함께하는 drama all that you know i'm savage hey 거침없는 baddest hey 나를 둘러싼 thrill hey 거친 여정 속의 drama drama-ma-ma 내가 깨트릴 모든 trauma drama-ma-ma 지금 시작되는 drama ya ya</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>['EN', 'KO']</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Drama</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>asepa</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>ya ya i'm the drama ziggy-ziggy-zag i'm new 'cause i go biggie biggie bad it's true 날카로운 눈 안에 비친 toxic 내 본능을 당겨 zoom hold up what oh my god you say what 다쳐 넌 you better watch out 우린 이미 거센 boom 달려가고 있어 vroom i li-li like me when i roll li-li-like me when i'm savage li-li-like me when i go li-li-likie when i baddest uh-huh hold up 빛을 따라서 mm 달아 다 다 달려나가 run go finally ra-ta-ta-ta 다 다 다음 세계를 열어 난 one two it's time to go 후회 없어 난 맞서 난 깨버렸지 날 따라서 움직일 rules 손끝으로 세상을 두드려 움직여 yeah i'm coming i bring i bring all the drama-ma-ma-ma hey hey i bring drama-ma-ma-ma hey hey with my girls in the back girls in the back drama trauma-ma-ma-ma hey hey i break trauma-ma-ma-ma hey hey with my world in the back 나로 시작되는 drama all that drama-ma-ma-ma bring it that drama-ma-ma-ma with my girls in the back girls in the back yeah i break trauma-ma-ma-ma we them trauma-ma-ma-ma with my world in the back 나로 시작되는 drama drama drama-ma-ma-ma drama-ma-ma-ma three two one drama-ma-ma you know i've been kind of like one two three yeah yeah 깜짝 놀랄 다음 scene what what 키를 거머쥔 주인공은 나 uh four three two going down 쉽게 through yeah deja vu 같이 그려지는 이미지 날 굳이 막지 말아 이건 내 drama 도발은 굳이 안 막아 uh i'm a stunner one two it's time to go 타오르는 날 타는 날 느껴 난 and i love it 새로워지는 rules 난 눈을 떠 두 눈을 떠 시작된 걸 넌 알아 now it's coming i bring i bring all the drama-ma-ma-ma i bring drama-ma-ma-ma with my girls in the back girls in the back drama trauma-ma-ma-ma i break trauma-ma-ma-ma with my world in the back 나로 시작되는 drama into the real world 다가온 climax 두려워하지 마 whoa you and i oh yeah 함께 써 내려가는 story oh yeah 날 가로막았던 no oh 한계를 뛰어 넘어 every day oh i'ma make it my way out of the way yeah oh yeah i bring i bring all the drama-ma-ma-ma hey hey i bring drama-ma-ma-ma oh oh-oh-oh with my girls in the back girls in the back drama trauma-ma-ma-ma trauma-ma-ma-ma hey hey i break trauma-ma-ma-ma trauma-ma-ma-ma hey hey with my world in the back 나와 함께하는 drama all that you know i'm savage hey 거침없는 baddest hey 나를 둘러싼 thrill hey 거친 여정 속의 drama drama-ma-ma 내가 깨트릴 모든 trauma drama-ma-ma 지금 시작되는 drama ya ya</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
@@ -7102,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -7111,15 +8543,33 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7198,27 +8648,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>EN,KO</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Savage</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>aespa</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>oh my gosh don't you know i'm a savage i'm a killa 너를 깰 æ 아직도 가리고 환각을 펼친 너 팰라 we holler 두렵지 않아 너 너 hit you harder 날 밀어 넣어 deep fake on me 준비가 안된 무대로 몰아넣어 fake on me got everybody mock up to me 수치를 느끼게 멘탈을 흔들어놔 싸늘한 관중 무너져 æ ooh 더는 널 못 참아 say no yeah yeah 두고 봐 난 좀 savage 너의 dirty 한 play 더는 두고 볼 수 없어 나를 무너뜨리고 싶은 네 환각들이 점점 너를 구축할 이유가 돼 i'm a savage 널 부셔 깨 줄게 oh i'm a savage 널 짓밟아 줄게 oh get me get me now get me get me now zu zu zu zu 지금 나를 잡아 아님 난 더 savage zu zu zu zu get me get me now get me get me now zu zu zu zu 이젠 내가 너를 잡아 now i'm a savage gimme gimme now gimme gimme now zu zu zu zu 너의 말이 보여 네 약점 algorithm zu zu zu zu 김이 김이 나 김이 김이 나 zu zu zu zu ma æ synk 방해 말고 꺼져 savage zu zu zu zu mmm everybody look at me 익숙하잖니 양보해 참아야만 돼 어른스럽게 i'm lockеd up in the glass 난 놀고 싶은데 너무 끔찍한 기대 그런 환각 틀에 나를 가둬 놔 i'm going 광야로 game in 물리쳐 교묘한 이간질 and my æ로부터 멀어지게 만들 회심찬 네 trick wе gone 광야로 game in 베어버려 내 빛의 검 데미지를 입은 네게 인정사정 볼 것 없는 펀치 그것 봐 난 좀 savage 너의 재생력을 막아 흐트러놔 빼놔 잊지 말아 여긴 바로 광야 너의 시공간은 내 뜻대로 make it break it i'm a savage 널 부셔 깨 줄게 oh i'm a savage 널 짓밟아 줄게 oh get me get me now get me get me now zu zu zu zu 지금 나를 잡아 아님 난 더 savage zu zu zu zu get me get me now get me get me now zu zu zu zu 이젠 내가 너를 잡아 now i'm a savage gimme gimme now gimme gimme now zu zu zu zu 너의 말이 보여 네 약점 algorithm zu zu zu zu 김이 김이 나 김이 김이 나 zu zu zu zu ma æ synk 방해 말고 꺼져 savage zu zu zu zu 위기에 빠진 날 지켜준 건 너였어 my nævis we love you my victory 하나의 synk dive 모두 네가 만들어준 기회란 거 i know your sacrifices oh my nævis we love you 알아 우린 반드시 네 기억들을 찾아줄게 우린 만나 꼭 부활 그다음 savage savage yeah get me get me now get me get me now zu zu zu zu 지금 나를 잡아 아님 난 더 savage zu zu zu zu get me get me now get me get me now zu zu zu zu 이젠 내가 너를 잡아 now i'm a savage gimme gimme now gimme gimme now zu zu zu zu 너의 말이 보여 네 약점 algorithm zu zu zu zu 김이 김이 나 김이 김이 나 zu zu zu zu ma æ synk 방해 말고 꺼져 savage zu zu zu zu ha ha what</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>['EN', 'KO']</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Savage</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>aespa</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>oh my gosh don't you know i'm a savage i'm a killa 너를 깰 æ 아직도 가리고 환각을 펼친 너 팰라 we holler 두렵지 않아 너 너 hit you harder 날 밀어 넣어 deep fake on me 준비가 안된 무대로 몰아넣어 fake on me got everybody mock up to me 수치를 느끼게 멘탈을 흔들어놔 싸늘한 관중 무너져 æ ooh 더는 널 못 참아 say no yeah yeah 두고 봐 난 좀 savage 너의 dirty 한 play 더는 두고 볼 수 없어 나를 무너뜨리고 싶은 네 환각들이 점점 너를 구축할 이유가 돼 i'm a savage 널 부셔 깨 줄게 oh i'm a savage 널 짓밟아 줄게 oh get me get me now get me get me now zu zu zu zu 지금 나를 잡아 아님 난 더 savage zu zu zu zu get me get me now get me get me now zu zu zu zu 이젠 내가 너를 잡아 now i'm a savage gimme gimme now gimme gimme now zu zu zu zu 너의 말이 보여 네 약점 algorithm zu zu zu zu 김이 김이 나 김이 김이 나 zu zu zu zu ma æ synk 방해 말고 꺼져 savage zu zu zu zu mmm everybody look at me 익숙하잖니 양보해 참아야만 돼 어른스럽게 i'm lockеd up in the glass 난 놀고 싶은데 너무 끔찍한 기대 그런 환각 틀에 나를 가둬 놔 i'm going 광야로 game in 물리쳐 교묘한 이간질 and my æ로부터 멀어지게 만들 회심찬 네 trick wе gone 광야로 game in 베어버려 내 빛의 검 데미지를 입은 네게 인정사정 볼 것 없는 펀치 그것 봐 난 좀 savage 너의 재생력을 막아 흐트러놔 빼놔 잊지 말아 여긴 바로 광야 너의 시공간은 내 뜻대로 make it break it i'm a savage 널 부셔 깨 줄게 oh i'm a savage 널 짓밟아 줄게 oh get me get me now get me get me now zu zu zu zu 지금 나를 잡아 아님 난 더 savage zu zu zu zu get me get me now get me get me now zu zu zu zu 이젠 내가 너를 잡아 now i'm a savage gimme gimme now gimme gimme now zu zu zu zu 너의 말이 보여 네 약점 algorithm zu zu zu zu 김이 김이 나 김이 김이 나 zu zu zu zu ma æ synk 방해 말고 꺼져 savage zu zu zu zu 위기에 빠진 날 지켜준 건 너였어 my nævis we love you my victory 하나의 synk dive 모두 네가 만들어준 기회란 거 i know your sacrifices oh my nævis we love you 알아 우린 반드시 네 기억들을 찾아줄게 우린 만나 꼭 부활 그다음 savage savage yeah get me get me now get me get me now zu zu zu zu 지금 나를 잡아 아님 난 더 savage zu zu zu zu get me get me now get me get me now zu zu zu zu 이젠 내가 너를 잡아 now i'm a savage gimme gimme now gimme gimme now zu zu zu zu 너의 말이 보여 네 약점 algorithm zu zu zu zu 김이 김이 나 김이 김이 나 zu zu zu zu ma æ synk 방해 말고 꺼져 savage zu zu zu zu ha ha what</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
@@ -7232,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -7241,15 +8693,33 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7355,27 +8825,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>EN,KO</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No Blueberries</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>DPR</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>i like no blueberries in my ice cream cake no air to breathe with that masking tape stop please i need a hostage free i need a rocket ship i need to run from i like no blueberries in my ice cream cake no air to breathe with that masking tape stop please i need a hostage free i need a rocket ship i need to run from from you i'm just kind of lost i fall from you i've been looking down a lot i fall from you i'm falling way too soft i fall from you now tell me when to stop here we go again to this beat oh no tell me why you want to be so sweet tell me what's in your eyеs baby red green or blue welcomе to the other side i keep losing my temper for you i love it how you think i'm always this cool excusez-moi i think i'm just a fool afraid of what's in your eyes baby red green or blue welcome to the other side i like no blueberries in my ice cream cake no air to breathe with that masking tape stop please i need a hostage free i need a rocket ship i need to run from from you i'm just kind of lost i fall from you i've been looking down a lot i fall from you i'm falling way too soft i fall from you now tell me when to stop coming to you live yo mito pass me the tape 시끄러워 don't make me shoot a scene full of rappers 전부 다 맛없어 we need to go drop to the floor 움직여 we blow 엊적엤어 너무 stylish the way we i'm a vibey villain mi amor yeah oh she knows it she's in love with me and that's a drug in dangerous doses and i'm in love with your poses can't see straight can't focus get chills when i see your o-face you're the coldest alright cool i like no blueberries in my ice cream cake no air to breathe with that masking tape stop please i need a hostage free i need a rocket ship i need to run from from you i'm just kind of lost i fall from you i've been looking down a lot i fall from you i'm falling way too soft i fall from you now tell me when to stop so now you've blown all your covers i got this blue to make you come up so when you think it's almost over i got this blue to make you come up so now you've blown all your covers before i forget i got this blue to make you come up so when you think it's almost over before i lose it i got this blue to make you come up</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>['EN', 'KO']</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>No Blueberries</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>DPR</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>i like no blueberries in my ice cream cake no air to breathe with that masking tape stop please i need a hostage free i need a rocket ship i need to run from i like no blueberries in my ice cream cake no air to breathe with that masking tape stop please i need a hostage free i need a rocket ship i need to run from from you i'm just kind of lost i fall from you i've been looking down a lot i fall from you i'm falling way too soft i fall from you now tell me when to stop here we go again to this beat oh no tell me why you want to be so sweet tell me what's in your eyеs baby red green or blue welcomе to the other side i keep losing my temper for you i love it how you think i'm always this cool excusez-moi i think i'm just a fool afraid of what's in your eyes baby red green or blue welcome to the other side i like no blueberries in my ice cream cake no air to breathe with that masking tape stop please i need a hostage free i need a rocket ship i need to run from from you i'm just kind of lost i fall from you i've been looking down a lot i fall from you i'm falling way too soft i fall from you now tell me when to stop coming to you live yo mito pass me the tape 시끄러워 don't make me shoot a scene full of rappers 전부 다 맛없어 we need to go drop to the floor 움직여 we blow 엊적엤어 너무 stylish the way we i'm a vibey villain mi amor yeah oh she knows it she's in love with me and that's a drug in dangerous doses and i'm in love with your poses can't see straight can't focus get chills when i see your o-face you're the coldest alright cool i like no blueberries in my ice cream cake no air to breathe with that masking tape stop please i need a hostage free i need a rocket ship i need to run from from you i'm just kind of lost i fall from you i've been looking down a lot i fall from you i'm falling way too soft i fall from you now tell me when to stop so now you've blown all your covers i got this blue to make you come up so when you think it's almost over i got this blue to make you come up so now you've blown all your covers before i forget i got this blue to make you come up so when you think it's almost over before i lose it i got this blue to make you come up</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
@@ -7389,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -7398,15 +8870,33 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7466,27 +8956,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>EN,KO</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>FANCY</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>TWICE</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>지금 하늘 구름 색은 tropical yeah 저 태양 빨간빛 네 두 볼 같애 oh tell me i'm the only one baby i fancy you i fancy you fancy you twice it's dangerous 따끔해 넌 장미 같아 괜찮아 조금도 난 겁나지 않아 더 세게 꼭 잡아 take my hand 좀 위험할거야 더 위험할거야 baby 달콤한 초콜릿 아이스크림처럼 녹아버리는 지금 내 기분 so lovely 깜깜한 우주 속 가장 반짝이는 저 별 저 별 그 옆에 큰 니 별 거기 너 i fancy you 아무나 원하지 않아 hey i love you love ya 그래 너 i fancy you 꿈처럼 행복해도 돼 'cause i need you what fancy you ooh 누가 먼저 좋아하면 어때 fancy you ooh 지금 너에게로 갈래 fancy ooh 매일매일 매일 난 정말 아무것도 못하네 oh my mayday day 이러다 큰일 낼 것 같은데 bang bang 머리가 홀린 듯 reset이 돼 어쩌면 좋아 이게 맞는건지 몰라 sos swim swim 너란 바다에 잠수함이 돼 매일이 birthday 달콤해 너와 나의 fantasy dream dream 마치 꿈 같아 볼 꼬집어봐 요즘 나의 상태 메세진 랄랄라 baby 달콤한 초콜릿 아이스크림처럼 녹아버리는 지금 내 기분 so lovely 깜깜한 hey 우주 속 가장 반짝이는 저 별 저 별 그 옆에 큰 니 별 거기 너 i fancy you 아무나 원하지 않아 hey i love you love ya 그래 너 i fancy you 꿈처럼 행복해도 돼 'cause i need you what fancy you ooh 누가 먼저 좋아하면 어때 fancy you ooh 지금 너에게로 갈래 fancy ooh 연기처럼 훅 사라질까 늘 가득히 담아 두 눈에 담아 생각만으로 포근해져 몰래 뒤에서 안아 널 놓지 않을래 거기 너 i fancy you fancy you 아무나 원하지 않아 hey i love you love ya 그래 너 i fancy you 꿈처럼 행복해도 돼 'cause i need you what fancy you ooh 누가 먼저 좋아하면 어때 fancy you ooh 지금 너에게로 갈래 fancy ooh</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>['EN', 'KO']</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>FANCY</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>TWICE</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>지금 하늘 구름 색은 tropical yeah 저 태양 빨간빛 네 두 볼 같애 oh tell me i'm the only one baby i fancy you i fancy you fancy you twice it's dangerous 따끔해 넌 장미 같아 괜찮아 조금도 난 겁나지 않아 더 세게 꼭 잡아 take my hand 좀 위험할거야 더 위험할거야 baby 달콤한 초콜릿 아이스크림처럼 녹아버리는 지금 내 기분 so lovely 깜깜한 우주 속 가장 반짝이는 저 별 저 별 그 옆에 큰 니 별 거기 너 i fancy you 아무나 원하지 않아 hey i love you love ya 그래 너 i fancy you 꿈처럼 행복해도 돼 'cause i need you what fancy you ooh 누가 먼저 좋아하면 어때 fancy you ooh 지금 너에게로 갈래 fancy ooh 매일매일 매일 난 정말 아무것도 못하네 oh my mayday day 이러다 큰일 낼 것 같은데 bang bang 머리가 홀린 듯 reset이 돼 어쩌면 좋아 이게 맞는건지 몰라 sos swim swim 너란 바다에 잠수함이 돼 매일이 birthday 달콤해 너와 나의 fantasy dream dream 마치 꿈 같아 볼 꼬집어봐 요즘 나의 상태 메세진 랄랄라 baby 달콤한 초콜릿 아이스크림처럼 녹아버리는 지금 내 기분 so lovely 깜깜한 hey 우주 속 가장 반짝이는 저 별 저 별 그 옆에 큰 니 별 거기 너 i fancy you 아무나 원하지 않아 hey i love you love ya 그래 너 i fancy you 꿈처럼 행복해도 돼 'cause i need you what fancy you ooh 누가 먼저 좋아하면 어때 fancy you ooh 지금 너에게로 갈래 fancy ooh 연기처럼 훅 사라질까 늘 가득히 담아 두 눈에 담아 생각만으로 포근해져 몰래 뒤에서 안아 널 놓지 않을래 거기 너 i fancy you fancy you 아무나 원하지 않아 hey i love you love ya 그래 너 i fancy you 꿈처럼 행복해도 돼 'cause i need you what fancy you ooh 누가 먼저 좋아하면 어때 fancy you ooh 지금 너에게로 갈래 fancy ooh</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
@@ -7500,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -7509,15 +9001,33 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7599,27 +9109,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>KO,EN</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>How You Like That</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>보란 듯이 무너졌어 바닥을 뚫고 저 지하까지 옷 끝자락 잡겠다고 저 높이 두 손을 뻗어봐도 다시 캄캄한 이곳에 light up the sky 니 두 눈을 보며 i'll kiss you goodbye 실컷 비웃어라 꼴좋으니까 이제 너희 하나 둘 셋 ha how you like that you gon' like that that-that-that-that that-that-that-that how you like that bada bing bada boom boom boom how you like that that-that-that-that that-that-that-that now look at you now look at me uh look at you now look at me uh look at you now look at me how you like that now look at you now look at me uh look at you now look at me uh look at you now look at me how you like that your girl need it all and that's a hunnit 백 개 중에 백 내 몫을 원해 karma come and get some 딱하지만 어쩔 수 없잖아 what's up i'm right back right back 방아쇠를 cock back cock back plain jane get hijacked don't like me then tell me how you like that like that 더 캄캄한 이곳에 shine like the stars 그 미소를 띠며 i'll kiss you goodbye 실컷 비웃어라 꼴좋으니까 이제 너희 하나 둘 셋 ha how you like that you gon' like that that-that-that-that that-that-that-that how you like that bada bing bada boom boom boom how you like that that-that-that-that that-that-that-that now look at you now look at me uh look at you now look at me uh look at you now look at me how you like that now look at you now look at me uh look at you now look at me uh look at you now look at me how you like that 날개 잃은 채로 추락했던 날 어두운 나날 속에 갇혀 있던 날 그때쯤에 넌 날 끝내야 했어 look up in the sky it's a bird it's a plane yeah bring out your boss bitch yeah blackpink dum-dum-dum-dururu dum-dum-dum-dururu how you like that dum-dum-dum-dururu dum-dum-dum-dururu you gon' like that dum-dum-dum-dururu dum-dum-dum-dururu how you like that dum-dum-dum-dururu dum-dum-dum-dururu</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>['KO', 'EN']</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>BLACKPINK</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>How You Like That</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>보란 듯이 무너졌어 바닥을 뚫고 저 지하까지 옷 끝자락 잡겠다고 저 높이 두 손을 뻗어봐도 다시 캄캄한 이곳에 light up the sky 니 두 눈을 보며 i'll kiss you goodbye 실컷 비웃어라 꼴좋으니까 이제 너희 하나 둘 셋 ha how you like that you gon' like that that-that-that-that that-that-that-that how you like that bada bing bada boom boom boom how you like that that-that-that-that that-that-that-that now look at you now look at me uh look at you now look at me uh look at you now look at me how you like that now look at you now look at me uh look at you now look at me uh look at you now look at me how you like that your girl need it all and that's a hunnit 백 개 중에 백 내 몫을 원해 karma come and get some 딱하지만 어쩔 수 없잖아 what's up i'm right back right back 방아쇠를 cock back cock back plain jane get hijacked don't like me then tell me how you like that like that 더 캄캄한 이곳에 shine like the stars 그 미소를 띠며 i'll kiss you goodbye 실컷 비웃어라 꼴좋으니까 이제 너희 하나 둘 셋 ha how you like that you gon' like that that-that-that-that that-that-that-that how you like that bada bing bada boom boom boom how you like that that-that-that-that that-that-that-that now look at you now look at me uh look at you now look at me uh look at you now look at me how you like that now look at you now look at me uh look at you now look at me uh look at you now look at me how you like that 날개 잃은 채로 추락했던 날 어두운 나날 속에 갇혀 있던 날 그때쯤에 넌 날 끝내야 했어 look up in the sky it's a bird it's a plane yeah bring out your boss bitch yeah blackpink dum-dum-dum-dururu dum-dum-dum-dururu how you like that dum-dum-dum-dururu dum-dum-dum-dururu you gon' like that dum-dum-dum-dururu dum-dum-dum-dururu how you like that dum-dum-dum-dururu dum-dum-dum-dururu</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
@@ -7633,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -7642,15 +9154,33 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7721,27 +9251,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>KO,EN</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Pink Venom</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>blackpink blackpink blackpink blackpink kick in the door waving the coco' 팝콘이나 챙겨 껴들 생각 말고 i talk that talk runways i walk-walk 눈 감고 pop-pop 안 봐도 척 one by one then two by two 내 손끝 툭 하나에 다 무너지는 중 가짜 쇼 치곤 화려했지 makes no sense you couldn't get a dollar out of me 자 오늘 밤이야 난 독을 품은 꽃 네 혼을 빼앗은 다음 look what you made us do 천천히 널 잠재울 fire 잔인할 만큼 아름다워 i bring the pain like this that pink venom this that pink venom this that pink venom get 'em get 'em get 'em straight to ya dome like whoa-whoa-whoa straight to ya dome like ah-ah-ah taste that pink venom taste that pink venom taste that pink venom get 'em get 'em get 'em straight to ya dome like whoa-whoa-whoa straight to ya dome like ah-ah-ah black paint and ammo' got bodies like rambo rest in peace please light up a candle this the life of a vandal masked up and i'm still in celine designer crimes or it wouldn't be me ooh diamonds shining drive in silence i don't mind it i'm riding flying private side by side with the pilot up in the sky and i'm wyling styling on them and there's no chance 'cause we got bodies on bodies like this a slow dance 자 오늘 밤이야 난 독을 품은 꽃 네 혼을 빼앗은 다음 look what you made us do 천천히 널 잠재울 fire 잔인할 만큼 아름다워 i bring the pain like this that pink venom this that pink venom this that pink venom get 'em get 'em get 'em straight to ya dome like whoa-whoa-whoa straight to ya dome like ah-ah-ah taste that pink venom taste that pink venom taste that pink venom get 'em get 'em get 'em straight to ya dome like whoa-whoa-whoa straight to ya dome like ah-ah-ah 원한다면 provoke us 감당 못해 and you know this 이미 퍼져버린 shot that potion 네 눈앞은 핑크빛 ocean come and give me all the smoke 도 아니면 모 like i'm so rock and roll come and give me all the smoke 다 줄 세워 봐 자 stop drop i bring the pain like 라타타타 트라타타타 라타타타 트라타타타 라타타타 트라타타타 straight to ya straight to ya straight to ya dome like 라타타타 트라타타타 blackpink 라타타타 트라타타타 blackpink 라타타타 트라타타타 blackpink i bring the pain like-</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>['KO', 'EN']</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>BLACKPINK</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Pink Venom</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>blackpink blackpink blackpink blackpink kick in the door waving the coco' 팝콘이나 챙겨 껴들 생각 말고 i talk that talk runways i walk-walk 눈 감고 pop-pop 안 봐도 척 one by one then two by two 내 손끝 툭 하나에 다 무너지는 중 가짜 쇼 치곤 화려했지 makes no sense you couldn't get a dollar out of me 자 오늘 밤이야 난 독을 품은 꽃 네 혼을 빼앗은 다음 look what you made us do 천천히 널 잠재울 fire 잔인할 만큼 아름다워 i bring the pain like this that pink venom this that pink venom this that pink venom get 'em get 'em get 'em straight to ya dome like whoa-whoa-whoa straight to ya dome like ah-ah-ah taste that pink venom taste that pink venom taste that pink venom get 'em get 'em get 'em straight to ya dome like whoa-whoa-whoa straight to ya dome like ah-ah-ah black paint and ammo' got bodies like rambo rest in peace please light up a candle this the life of a vandal masked up and i'm still in celine designer crimes or it wouldn't be me ooh diamonds shining drive in silence i don't mind it i'm riding flying private side by side with the pilot up in the sky and i'm wyling styling on them and there's no chance 'cause we got bodies on bodies like this a slow dance 자 오늘 밤이야 난 독을 품은 꽃 네 혼을 빼앗은 다음 look what you made us do 천천히 널 잠재울 fire 잔인할 만큼 아름다워 i bring the pain like this that pink venom this that pink venom this that pink venom get 'em get 'em get 'em straight to ya dome like whoa-whoa-whoa straight to ya dome like ah-ah-ah taste that pink venom taste that pink venom taste that pink venom get 'em get 'em get 'em straight to ya dome like whoa-whoa-whoa straight to ya dome like ah-ah-ah 원한다면 provoke us 감당 못해 and you know this 이미 퍼져버린 shot that potion 네 눈앞은 핑크빛 ocean come and give me all the smoke 도 아니면 모 like i'm so rock and roll come and give me all the smoke 다 줄 세워 봐 자 stop drop i bring the pain like 라타타타 트라타타타 라타타타 트라타타타 라타타타 트라타타타 straight to ya straight to ya straight to ya dome like 라타타타 트라타타타 blackpink 라타타타 트라타타타 blackpink 라타타타 트라타타타 blackpink i bring the pain like-</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
@@ -7755,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -7764,15 +9296,33 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7836,27 +9386,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>KO,EN</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>BlackShut Down</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>blackpink in your area eh-oh blackpink in your area eh-oh 컴백이 아냐 떠난 적 없으니까 고개들이 돌아 진정해 목 꺾일라 분홍빛의 얼음 drip drip drip freeze 'em on sight shut it down what what what what 게임이 아냐 진 적이 없으니까 짖어봐 네 목에 목줄은 내 거니까 땅바닥에 닿은 pedal we go two-zero-five shut it down uh-uh-uh-uh 초록 비를 내려 머리 위로 don't trip baby 겸손하게 그냥 앉아있어 just sit baby praying for my downfall many have tried baby catch me when you hear my lamborghini go vroom vroom vroom vroom when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it it's black and it's pink once the sun down when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it keep watchin' me shut it down nah you don't wanna be on my bad side that's right i'm slidin' through bunch of wannabes that wanna be me me three if i was you been around the world pearls on ya girl vvs's we invested uh need a lesson see the necklace see these dresses we don't buy it we request it uh a rock star a pop star but rowdier say bye to the paparazzi get my good side i'll smile for ya know it ain't fair to ya it's scarin' ya like what now blackpink in your area the area been shut down it's a shut down 네 다음 답안지야 똑바로 봐 don't sleep baby 뒤집어봐 이건 가격표야 ain't cheap baby stay in your own lane 'cause i'm 'bout to swerve catch me when you hear my lamborghini go vroom vroom vroom vroom when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it it's black and it's pink once the sun down when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it keep watchin' me shut it down shut it down eh-oh blackpink in your area shut it down eh-oh whoa whoa whoa whoa shut it down eh-oh blackpink in your area keep talkin' we shut you down</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>['KO', 'EN']</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>BLACKPINK</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>BlackShut Down</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>blackpink in your area eh-oh blackpink in your area eh-oh 컴백이 아냐 떠난 적 없으니까 고개들이 돌아 진정해 목 꺾일라 분홍빛의 얼음 drip drip drip freeze 'em on sight shut it down what what what what 게임이 아냐 진 적이 없으니까 짖어봐 네 목에 목줄은 내 거니까 땅바닥에 닿은 pedal we go two-zero-five shut it down uh-uh-uh-uh 초록 비를 내려 머리 위로 don't trip baby 겸손하게 그냥 앉아있어 just sit baby praying for my downfall many have tried baby catch me when you hear my lamborghini go vroom vroom vroom vroom when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it it's black and it's pink once the sun down when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it keep watchin' me shut it down nah you don't wanna be on my bad side that's right i'm slidin' through bunch of wannabes that wanna be me me three if i was you been around the world pearls on ya girl vvs's we invested uh need a lesson see the necklace see these dresses we don't buy it we request it uh a rock star a pop star but rowdier say bye to the paparazzi get my good side i'll smile for ya know it ain't fair to ya it's scarin' ya like what now blackpink in your area the area been shut down it's a shut down 네 다음 답안지야 똑바로 봐 don't sleep baby 뒤집어봐 이건 가격표야 ain't cheap baby stay in your own lane 'cause i'm 'bout to swerve catch me when you hear my lamborghini go vroom vroom vroom vroom when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it it's black and it's pink once the sun down when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it keep watchin' me shut it down shut it down eh-oh blackpink in your area shut it down eh-oh whoa whoa whoa whoa shut it down eh-oh blackpink in your area keep talkin' we shut you down</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
@@ -7870,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -7879,15 +9431,33 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7951,27 +9521,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>KO,EN</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>WIth You</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>G-DRAGON</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>blackpink in your area eh-oh blackpink in your area eh-oh 컴백이 아냐 떠난 적 없으니까 고개들이 돌아 진정해 목 꺾일라 분홍빛의 얼음 drip drip drip freeze 'em on sight shut it down what what what what 게임이 아냐 진 적이 없으니까 짖어봐 네 목에 목줄은 내 거니까 땅바닥에 닿은 pedal we go two-zero-five shut it down uh-uh-uh-uh 초록 비를 내려 머리 위로 don't trip baby 겸손하게 그냥 앉아있어 just sit baby praying for my downfall many have tried baby catch me when you hear my lamborghini go vroom vroom vroom vroom when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it it's black and it's pink once the sun down when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it keep watchin' me shut it down nah you don't wanna be on my bad side that's right i'm slidin' through bunch of wannabes that wanna be me me three if i was you been around the world pearls on ya girl vvs's we invested uh need a lesson see the necklace see these dresses we don't buy it we request it uh a rock star a pop star but rowdier say bye to the paparazzi get my good side i'll smile for ya know it ain't fair to ya it's scarin' ya like what now blackpink in your area the area been shut down it's a shut down 네 다음 답안지야 똑바로 봐 don't sleep baby 뒤집어봐 이건 가격표야 ain't cheap baby stay in your own lane 'cause i'm 'bout to swerve catch me when you hear my lamborghini go vroom vroom vroom vroom when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it it's black and it's pink once the sun down when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it keep watchin' me shut it down shut it down eh-oh blackpink in your area shut it down eh-oh whoa whoa whoa whoa shut it down eh-oh blackpink in your area keep talkin' we shut you down</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>['KO', 'EN']</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>WIth You</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>G-DRAGON</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>blackpink in your area eh-oh blackpink in your area eh-oh 컴백이 아냐 떠난 적 없으니까 고개들이 돌아 진정해 목 꺾일라 분홍빛의 얼음 drip drip drip freeze 'em on sight shut it down what what what what 게임이 아냐 진 적이 없으니까 짖어봐 네 목에 목줄은 내 거니까 땅바닥에 닿은 pedal we go two-zero-five shut it down uh-uh-uh-uh 초록 비를 내려 머리 위로 don't trip baby 겸손하게 그냥 앉아있어 just sit baby praying for my downfall many have tried baby catch me when you hear my lamborghini go vroom vroom vroom vroom when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it it's black and it's pink once the sun down when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it keep watchin' me shut it down nah you don't wanna be on my bad side that's right i'm slidin' through bunch of wannabes that wanna be me me three if i was you been around the world pearls on ya girl vvs's we invested uh need a lesson see the necklace see these dresses we don't buy it we request it uh a rock star a pop star but rowdier say bye to the paparazzi get my good side i'll smile for ya know it ain't fair to ya it's scarin' ya like what now blackpink in your area the area been shut down it's a shut down 네 다음 답안지야 똑바로 봐 don't sleep baby 뒤집어봐 이건 가격표야 ain't cheap baby stay in your own lane 'cause i'm 'bout to swerve catch me when you hear my lamborghini go vroom vroom vroom vroom when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it it's black and it's pink once the sun down when we pull up you know it's a shut down 간판 내리고 문 잠가 shut down whip it whip it whip it whip it whip it whip it whip it whip it keep watchin' me shut it down shut it down eh-oh blackpink in your area shut it down eh-oh whoa whoa whoa whoa shut it down eh-oh blackpink in your area keep talkin' we shut you down</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
@@ -7985,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -7994,15 +9566,33 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8053,27 +9643,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>FR,EN</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Khaled</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Aicha</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>comme si j'n'existais pas elle est passée à côté de moi sans un regard reine de saba j'ai dit aïcha prends tout est pour toi voici les perles les bijoux aussi l'or autour de ton cou les fruits bien mûrs au goût de miel ma vie aïcha si tu m'aimes j'irai où ton souffle nous mènent dans les pays d'ivoire et d'ébène j'effacerai tes larmes tes peines rien n'est trop beau pour une si belle oh-oh aïcha aïcha écoute-moi aïcha aïcha t'en vas pas aïcha aïcha regarde-moi oh-oh aïcha aïcha réponds-moi je dirai les mots les poèmes je jouerai les musiques du ciel je prendrai les rayons du soleil pour éclairer tes yeux de reine oh-oh aïcha aïcha écoute-moi oh aïcha aïcha t'en vas pas elle a dit garde tes trésors moi je vaux mieux que tout ça des barreaux sont des barreaux même en or je veux les mêmes droits que toi et du respect pour chaque jour moi je ne veux que de l'amour نبغيك عيشة ونموت عليك هذه قصية حياتي وحبي انت عمري وإنت حياتي تمنيت نعيش معاك غيرانت aïcha aïcha écoute-moi عايشة عايشة أنا نبغيك oh-oh aïcha aïcha t'en vas pas عايشة عايشة ونموت عليك aïcha aïcha réponds-moi aïcha aïcha aïcha aïcha aïcha aïcha</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>['FR', 'EN']</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Khaled</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Aicha</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>comme si j'n'existais pas elle est passée à côté de moi sans un regard reine de saba j'ai dit aïcha prends tout est pour toi voici les perles les bijoux aussi l'or autour de ton cou les fruits bien mûrs au goût de miel ma vie aïcha si tu m'aimes j'irai où ton souffle nous mènent dans les pays d'ivoire et d'ébène j'effacerai tes larmes tes peines rien n'est trop beau pour une si belle oh-oh aïcha aïcha écoute-moi aïcha aïcha t'en vas pas aïcha aïcha regarde-moi oh-oh aïcha aïcha réponds-moi je dirai les mots les poèmes je jouerai les musiques du ciel je prendrai les rayons du soleil pour éclairer tes yeux de reine oh-oh aïcha aïcha écoute-moi oh aïcha aïcha t'en vas pas elle a dit garde tes trésors moi je vaux mieux que tout ça des barreaux sont des barreaux même en or je veux les mêmes droits que toi et du respect pour chaque jour moi je ne veux que de l'amour نبغيك عيشة ونموت عليك هذه قصية حياتي وحبي انت عمري وإنت حياتي تمنيت نعيش معاك غيرانت aïcha aïcha écoute-moi عايشة عايشة أنا نبغيك oh-oh aïcha aïcha t'en vas pas عايشة عايشة ونموت عليك aïcha aïcha réponds-moi aïcha aïcha aïcha aïcha aïcha aïcha</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
@@ -8084,13 +9676,13 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -8102,9 +9694,27 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8184,27 +9794,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>AR,EN,FR</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Khaled and Melissa M</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Benthi</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>regarde le partir regarde moi soufrir écoute pleurer mon coeur sens-tu ma douleur tu ne veux pas de lui pourtant c'est lui que j'aime laisse lui une chance sans différence مانيش باغي نخليك ديري لي تبغي نخاف عليك ويا بنتي غدوة تكبري وديري وليدات وتقولي بويا هاداك لي نصحني ها trop de larmes j'ai le coeur brisé quand pourras tu comprendre ma peine j'ai le mal d'aimer c'etait ma raison d'exister mes jours ne seront plus les mêmes أنا شفت الدنيا شحال من حشوة نحميك يا بنتي من هاد الدعوة الحب يا عمري ما راه فيه دوا راني خايف عليك تتعادي وأنا ننكوى regarde le partir regarde moi soufrir écoute pleurer mon coeur sens-tu ma douleur tu ne veux pas de lui pourtant c'est lui que j'aime laisse lui une chance sans différence مانيش باغي نخليك ديري لي تبغي نخاف عليك ويا بنتي غدوة تكبري وديري وليدات وتقولي بويا هاداك لي نصحني ها laisse moi faire mes propres pas tu ne seras pas toujours là pour guider mes choix non sais tu combien tu comptes a mes yeux sache que rien ne changera je serai toujours là pour toi مازال صغيرة يا عمري ومازال باش تفهمي الحب راه صعيب وبالاك تنغبني سمعيلي يا بنتي نتي عمري ونص قلبي خايف عليك لا تروحي أنا وتنغبني regarde le partir regarde moi soufrir écoute pleurer mon coeur sens-tu ma douleur tu ne veux pas de lui pourtant c'est lui que j'aime laisse lui une chance sans différence مانيش باغي نخليك ديري لي تبغي نخاف عليك ويا بنتي غدوة تكبري وديري وليدات وتقولي بويا هاداك لي نصحني ها خليه يروح يا بنتي خليه يروح ماتقوليش أنا نبقى وحدي لو كان تسمعيلي يا بنتي يا عمري كاين ما خير ولد الحلال وقليل comment redonner un sens a ma vie j'ai tout batit a travers lui pourquoi faire de notre amour un delit change d'avis papa je t'en pris آه خليك معاك ويا بنتي في دعوة الخير معاه ربي معطيه الخير ويا بنتي أنا مادابيا نشوفك فرحانة عروسة regarde le partir regarde moi soufrir écoute pleurer mon coeur sens-tu ma douleur tu ne veux pas de lui pourtant c'est lui que j'aime laisse lui une chance sans différence مانيش باغي نخليك ديري لي تبغي نخاف عليك ويا بنتي غدوة تكبري وديري وليدات وتقولي بويا هاداك لي نصحني ها يا بنتي ياه ويا بنتي سمحيلي ياها</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>['AR', 'EN', 'FR']</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Khaled and Melissa M</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Benthi</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>regarde le partir regarde moi soufrir écoute pleurer mon coeur sens-tu ma douleur tu ne veux pas de lui pourtant c'est lui que j'aime laisse lui une chance sans différence مانيش باغي نخليك ديري لي تبغي نخاف عليك ويا بنتي غدوة تكبري وديري وليدات وتقولي بويا هاداك لي نصحني ها trop de larmes j'ai le coeur brisé quand pourras tu comprendre ma peine j'ai le mal d'aimer c'etait ma raison d'exister mes jours ne seront plus les mêmes أنا شفت الدنيا شحال من حشوة نحميك يا بنتي من هاد الدعوة الحب يا عمري ما راه فيه دوا راني خايف عليك تتعادي وأنا ننكوى regarde le partir regarde moi soufrir écoute pleurer mon coeur sens-tu ma douleur tu ne veux pas de lui pourtant c'est lui que j'aime laisse lui une chance sans différence مانيش باغي نخليك ديري لي تبغي نخاف عليك ويا بنتي غدوة تكبري وديري وليدات وتقولي بويا هاداك لي نصحني ها laisse moi faire mes propres pas tu ne seras pas toujours là pour guider mes choix non sais tu combien tu comptes a mes yeux sache que rien ne changera je serai toujours là pour toi مازال صغيرة يا عمري ومازال باش تفهمي الحب راه صعيب وبالاك تنغبني سمعيلي يا بنتي نتي عمري ونص قلبي خايف عليك لا تروحي أنا وتنغبني regarde le partir regarde moi soufrir écoute pleurer mon coeur sens-tu ma douleur tu ne veux pas de lui pourtant c'est lui que j'aime laisse lui une chance sans différence مانيش باغي نخليك ديري لي تبغي نخاف عليك ويا بنتي غدوة تكبري وديري وليدات وتقولي بويا هاداك لي نصحني ها خليه يروح يا بنتي خليه يروح ماتقوليش أنا نبقى وحدي لو كان تسمعيلي يا بنتي يا عمري كاين ما خير ولد الحلال وقليل comment redonner un sens a ma vie j'ai tout batit a travers lui pourquoi faire de notre amour un delit change d'avis papa je t'en pris آه خليك معاك ويا بنتي في دعوة الخير معاه ربي معطيه الخير ويا بنتي أنا مادابيا نشوفك فرحانة عروسة regarde le partir regarde moi soufrir écoute pleurer mon coeur sens-tu ma douleur tu ne veux pas de lui pourtant c'est lui que j'aime laisse lui une chance sans différence مانيش باغي نخليك ديري لي تبغي نخاف عليك ويا بنتي غدوة تكبري وديري وليدات وتقولي بويا هاداك لي نصحني ها يا بنتي ياه ويا بنتي سمحيلي ياها</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
@@ -8212,16 +9824,16 @@
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -8233,9 +9845,27 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8330,27 +9960,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>KO,EN</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SUPER JUNIOR</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Mr.Simple</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>because you naughty naughty hey mr simple because you naughty naughty 다다다다다다다다 다다다다다다다다 다다다다다다다다 다다다다다다다다 슈주 간다 세상이 내 맘대로 안 된다고 화만 내면 안 돼 그럴 필요 없지 oh oh oh 걱정도 팔자다 작은 일에 너무 연연하지 말자 몸에 좋지 않아 성적이 좋았다가 나빴다가 그런 거지 뭐 흥 실적이 올랐다가 떨어졌다 그런 때도 있지 어쩌면 괜찮아 쉬어 가는 것도 좋아 모든 것이 때 때 때 때 때가 있는 거니까 그대가 남자라면 친굴 만나 술 한 잔에 털어버리고 alright alright alright 그대가 여자라면 친굴 만나 수다 떨어 날려버리고 alright alright alright 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call 가자 가자 어서 가자 막혔을 땐 돌아가자 골치 아파 죽겠다면 오늘 하루만 놀고 보자 안 그래도 거친 세상 죽어라 뛰면 나만 지쳐 기다려봐 아껴둬 봐 너의 날이 곧 올 테니까 blow your mind 가라 mr simple blow your mind 때가 왔잖아 두려워 말고 blow your mind 가자 mr simple blow your mind 때가 왔잖아 준비 됐잖아 속 썩는 일이 한 두 가지 아닌 세상에 우린 살아 그건 애도 알아 oh oh 뭐 이렇게 어렵나 우리 잘 먹고 잘 자고 또 잘하면 그렇게 하면 되지 그대가 화가 나면 친굴 만나 뒷담화로 풀어버리고 alright alright alright 그대가 괴롭다면 노래 불러 소리 질러 날려버리고 alright alright alright 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call j call j call j call dance 자유란 게 뭐 그리 별거 있나 just get it get it 소소한 일탈의 재미 둥둥둥 쿵쿵쿵 살아있는 그댈 느끼고 싶나 just grab it grab it 가슴 뛰는 내 꿈들의 얘기 둥둥둥 쿵쿵쿵 because you naughty naughty 이제 걱정 하지마 앞엔 좋은 날이 올 거야 심각한 얘긴 다 뒤로 미뤄두고 오늘은 밝게 웃어봐 그대의 환한 웃음에 모두 기분 좋아져 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call 가자 가자 어서 가자 막혔을 땐 돌아가자 골치 아파 죽겠다면 오늘 하루만 놀고 보자 안 그래도 거친 세상 죽어라 뛰면 나만 지쳐 기다려봐 아껴둬 봐 너의 날이 곧 올 테니까 blow your mind 가라 mr simple blow your mind 때가 왔잖아 두려워 말고 blow your mind 가자 mr simple blow your mind 가라 mr simple</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>['KO', 'EN']</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>SUPER JUNIOR</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Mr.Simple</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>because you naughty naughty hey mr simple because you naughty naughty 다다다다다다다다 다다다다다다다다 다다다다다다다다 다다다다다다다다 슈주 간다 세상이 내 맘대로 안 된다고 화만 내면 안 돼 그럴 필요 없지 oh oh oh 걱정도 팔자다 작은 일에 너무 연연하지 말자 몸에 좋지 않아 성적이 좋았다가 나빴다가 그런 거지 뭐 흥 실적이 올랐다가 떨어졌다 그런 때도 있지 어쩌면 괜찮아 쉬어 가는 것도 좋아 모든 것이 때 때 때 때 때가 있는 거니까 그대가 남자라면 친굴 만나 술 한 잔에 털어버리고 alright alright alright 그대가 여자라면 친굴 만나 수다 떨어 날려버리고 alright alright alright 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call 가자 가자 어서 가자 막혔을 땐 돌아가자 골치 아파 죽겠다면 오늘 하루만 놀고 보자 안 그래도 거친 세상 죽어라 뛰면 나만 지쳐 기다려봐 아껴둬 봐 너의 날이 곧 올 테니까 blow your mind 가라 mr simple blow your mind 때가 왔잖아 두려워 말고 blow your mind 가자 mr simple blow your mind 때가 왔잖아 준비 됐잖아 속 썩는 일이 한 두 가지 아닌 세상에 우린 살아 그건 애도 알아 oh oh 뭐 이렇게 어렵나 우리 잘 먹고 잘 자고 또 잘하면 그렇게 하면 되지 그대가 화가 나면 친굴 만나 뒷담화로 풀어버리고 alright alright alright 그대가 괴롭다면 노래 불러 소리 질러 날려버리고 alright alright alright 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call j call j call j call dance 자유란 게 뭐 그리 별거 있나 just get it get it 소소한 일탈의 재미 둥둥둥 쿵쿵쿵 살아있는 그댈 느끼고 싶나 just grab it grab it 가슴 뛰는 내 꿈들의 얘기 둥둥둥 쿵쿵쿵 because you naughty naughty 이제 걱정 하지마 앞엔 좋은 날이 올 거야 심각한 얘긴 다 뒤로 미뤄두고 오늘은 밝게 웃어봐 그대의 환한 웃음에 모두 기분 좋아져 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call 봐라 mr simple simple 그대는 그대는 그대로 멋져 봐라 miss simple simple 그대는 그대로 예뻐 sj call 가자 가자 어서 가자 막혔을 땐 돌아가자 골치 아파 죽겠다면 오늘 하루만 놀고 보자 안 그래도 거친 세상 죽어라 뛰면 나만 지쳐 기다려봐 아껴둬 봐 너의 날이 곧 올 테니까 blow your mind 가라 mr simple blow your mind 때가 왔잖아 두려워 말고 blow your mind 가자 mr simple blow your mind 가라 mr simple</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
@@ -8364,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -8373,15 +10005,33 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8468,7 +10118,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['AR', 'EN', 'FR']</t>
+          <t>AR,EN,FR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -8482,8 +10132,10 @@
           <t>i'm busy and you hate it mind is on my payment you've been just so patient tu comprends my lifestyle et tu sais notre sex est trop wild this why you're my favorite ما بتمل ناطرني لتشوفني بالليلة i know you've been you've been so fed up that i've been too consumed said i'll be there soon ooh anxious for your love boy remove your shoes i'll take care of you you i won't stop give you all i got i ain't love a lot but you're my best shot you're my soft spot key to my lock 'til it's three o'clock make my bed rock you deserve it i'm all yours tonight baby n-a-s-t-y with it n-a-s-t-y with it ooh i need it you're the type that i know if i lied you would lie too and face the charges with me ride around in a stolen if i'm in it you're the heart on the pages i've been spilling you got me feeling lifted ooh baby yeah t'es ma faiblesse i'm so ready et j'arrête pas de penser à quand tu vas enlever mes vêtements you've been so fed up that i've been too consumed said i'll be there soon ooh anxious for your love boy remove your shoes i'll take care of you you i won't stop give you all i got i ain't love a lot but you're my best shot you're my soft spot key to my lock 'til it's three o'clock make my bed rock you deserve it i'm all yours tonight baby n-a-s-t-y with it n-a-s-t-y with it i can't get enough your touch is my drugs i can't get enough way you ride for me i think that you could be the one this is more than love i can't get enough we are all we need and that's on us i won't stop give you all i got i ain't love a lot but you're my best shot you're my soft spot key to my lock 'til it's three o'clock make my bed rock you deserve it i'm all yours tonight baby n-a-s-t-y with it n-a-s-t-y with it ooh i need it</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>1</v>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>['AR', 'EN', 'FR']</t>
+        </is>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -8492,16 +10144,16 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -8513,9 +10165,27 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8601,7 +10271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['FR', 'EN']</t>
+          <t>FR,EN,</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -8615,8 +10285,10 @@
           <t>alright go eh-eh eh-eh obah eh-eh mad oh eh-eh odoye' odoyewu ye eh-eh eh-eh to a place she loves eh-eh i want to flex my love eh-eh i wan impress eh-eh and i want to carry my love away eh-eh to a place she loves eh-eh and my woman woman eh-eh i wan impress eh-eh and i want to carry my love away eh-eh comot to a place she loves eh-eh eh 'doyewu 'doyewu odoyewu ye odoyewu odo 'doyewu 'doyewu odoyewu ye odoyewu 'doyewu 'doyewu odoyewu ye odoyewu odo 'doyewu 'doyewu odoyewu ye odoyewu odo odo eh-eh odo eh odoyewu ye eh-eh you know that my body calling eh-eh and your body picking oh no eh-eh loving you dey make me forget say i get problem by the end of the night enter bathroom fresh up i want to flex my love eh-eh i wan impress eh-eh and i want to carry my love away eh-eh to a place she loves eh-eh and my woman woman eh-eh i wan impress eh-eh and i want to carry my love away eh-eh comot to a place she loves eh-eh eh 'doyewu 'doyewu odoyewu ye odoyewu odo 'doyewu 'doyewu odoyewu ye odoyewu 'doyewu 'doyewu odoyewu ye odoyewu 'doyewu 'doyewu odoyewu ye odoyewu tú eres mi amor you are the king king king te quiero más que lo que quiero all the bling-bling-bling soy tu woman woman yeah you got the best best best nobody else to llevarme i'm in love with my bebé bebé thinkin' 'bout you like daily it's whatever you want que quieres dale dale hurry i'm waiting i'm ready we can have un nene una nena francisco isabela any order cualquier hora only tears of joy cuando me lloras i want to flex my love eh-eh i wan impress eh-eh and i want to carry my love away eh-eh to a place he loves eh-eh i'm his woman woman eh-eh i wan impress eh-eh and i want to carry my love away eh-eh to a place he loves eh-eh 'doyewu 'doyewu odoyewu ye odoyewu yes 'doyewu 'doyewu odoyewu ye odoyewu oh oh</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>0</v>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>['FR', 'EN']</t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -8628,13 +10300,13 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -8646,9 +10318,27 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8727,27 +10417,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>ES,EN</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Santana</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Maria Maria</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>ladies and gents turn up this sound system to the sound of carlos santana and the gmb's ghetto blues from the refugee camp oh maria maria she reminds me of a west side story growing up in spanish harlem she's living the life just like a movie star oh maria maria she fell in love in east la to the sounds of the guitar yeah yeah played by carlos santana stop the looting stop the shooting pick pocking on the corner see as the rich is getting richer the poor is getting poorer si mira maria on the corner thinking of ways to make it better in my mailbox there's an eviction letter somebody just said see you later ahora vengo mama chola mama chola ahora vengo mama chola east coast ahora vengo mama chola mama chola ahora vengo mama chola west coast oh maria maria she reminds me of a west side story growing up in spanish harlem she's living the life just like a movie star oh maria maria she fell in love in east la to the sounds of the guitar yeah yeah played by carlos santana i said a la favella los colores the streets are getting hotter there is no water to put out the fire mi contar esperanza se mira maria on the corner thinking of ways to make it better then i looked up in the sky hoping of days of paradise ahora vengo mama chola mama chola ahora vengo mama chola north side ahora vengo mama chola mama chola ahora vengo mama chola south side ahora vengo mama chola mama chola ahora vengo mama chola world wide ahora vengo mama chola mama chola ahora vengo mama chola open up your eyes maria you know you're my lover when the wind blows i can feel you through the weather and even when we are apart it still feels like we're together oh maria yeah she reminds me of a west side story growing up in spanish harlem she's living the life just like a movie star oh maria maria oh she fell in love in east la to the sounds of the guitar played by carlos santana put 'em up y'all carlos santana with the refugee camp wyclef jerry wonder mr santana gmb yo carlos man you're making that guitar cry</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>['ES', 'EN']</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Santana</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Maria Maria</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>ladies and gents turn up this sound system to the sound of carlos santana and the gmb's ghetto blues from the refugee camp oh maria maria she reminds me of a west side story growing up in spanish harlem she's living the life just like a movie star oh maria maria she fell in love in east la to the sounds of the guitar yeah yeah played by carlos santana stop the looting stop the shooting pick pocking on the corner see as the rich is getting richer the poor is getting poorer si mira maria on the corner thinking of ways to make it better in my mailbox there's an eviction letter somebody just said see you later ahora vengo mama chola mama chola ahora vengo mama chola east coast ahora vengo mama chola mama chola ahora vengo mama chola west coast oh maria maria she reminds me of a west side story growing up in spanish harlem she's living the life just like a movie star oh maria maria she fell in love in east la to the sounds of the guitar yeah yeah played by carlos santana i said a la favella los colores the streets are getting hotter there is no water to put out the fire mi contar esperanza se mira maria on the corner thinking of ways to make it better then i looked up in the sky hoping of days of paradise ahora vengo mama chola mama chola ahora vengo mama chola north side ahora vengo mama chola mama chola ahora vengo mama chola south side ahora vengo mama chola mama chola ahora vengo mama chola world wide ahora vengo mama chola mama chola ahora vengo mama chola open up your eyes maria you know you're my lover when the wind blows i can feel you through the weather and even when we are apart it still feels like we're together oh maria yeah she reminds me of a west side story growing up in spanish harlem she's living the life just like a movie star oh maria maria oh she fell in love in east la to the sounds of the guitar played by carlos santana put 'em up y'all carlos santana with the refugee camp wyclef jerry wonder mr santana gmb yo carlos man you're making that guitar cry</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
@@ -8755,13 +10447,13 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -8776,9 +10468,27 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8816,27 +10526,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>IS,EN</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Bjork</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Venus As A Boy</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>his wicked sense of humor suggests exciting sex his fingers they focus on her and touches he's venus as a boy ól lit glatt á mér ól engin skil er álver he believes in a beauty he's venus as a boy he believes in a beauty and gentle he believes in a beauty he's venus as a boy he believes in a beauty and gentle he's exploring the taste of her arousal so accurate he sets off the beauty in her he's venus a venus as a boy all across your lips oh then until well be that it's a little now until he believes in a beauty he's venus as a boy he believes in a beauty and gentle he believes in a beauty he's venus as a boy he believes in a beauty and gentle just see me melt just oh understand me challenge me just a little a little oh</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>['IS', 'EN']</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Bjork</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Venus As A Boy</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>his wicked sense of humor suggests exciting sex his fingers they focus on her and touches he's venus as a boy ól lit glatt á mér ól engin skil er álver he believes in a beauty he's venus as a boy he believes in a beauty and gentle he believes in a beauty he's venus as a boy he believes in a beauty and gentle he's exploring the taste of her arousal so accurate he sets off the beauty in her he's venus a venus as a boy all across your lips oh then until well be that it's a little now until he believes in a beauty he's venus as a boy he believes in a beauty and gentle he believes in a beauty he's venus as a boy he believes in a beauty and gentle just see me melt just oh understand me challenge me just a little a little oh</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
@@ -8850,24 +10562,42 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8929,27 +10659,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>ES,EN</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Jain</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Makeba</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ooohe ooh ooohe ooh ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you i want to hear your breath just next to my soul i want to feel oppress without any rest i want to see you sing i want to see you fight because you are the real beauty of human right ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you nobody can beat the mama africa you follow the beat that she's going to give ya only her smile can all make it go the sufferation of a thousand more ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba ma qué bella ooohe makeba ma qué bella ooohe makeba ma qué bella ooohe makeba ma qué bella</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>['ES', 'EN']</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Jain</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Makeba</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>ooohe ooh ooohe ooh ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you i want to hear your breath just next to my soul i want to feel oppress without any rest i want to see you sing i want to see you fight because you are the real beauty of human right ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you nobody can beat the mama africa you follow the beat that she's going to give ya only her smile can all make it go the sufferation of a thousand more ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba makeba ma qué bella can i get a oohe makeba makes my body dance for you ooohe makeba ma qué bella ooohe makeba ma qué bella ooohe makeba ma qué bella ooohe makeba ma qué bella</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
@@ -8957,13 +10689,13 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -8978,9 +10710,27 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9053,27 +10803,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>ES,EN</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>J Balvin</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Mi Gen</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>si el ritmo te lleva a mover la cabeza ya empezamos cómo es mi música no discrimina a nadie así que vamos a romper con lo mío todos se mueven la fiesta la llevo en mis genes yo soy la reina de los nenes mi gente no se detiene aquí nadie se quiere ir si el ritmo está en tu cabeza ahora suéltate y mueve los pies me encanta cuando el bajo suena empezamos a subir de toda mi gente se mueve la fiesta la llevo en mis genes yo soy la reina de los nenes mi musica los tiene fuerte bailando y se baila así tamo' rompiendo la discoteca la fiesta no para apenas comienza c'est comme-ci c'est comme-ça ma chèrie la la la la la francia colombia houston freeze j balvin willy william beyoncé freeze los dj's no mienten le gusta a mi gente y eso se fue mundial freeze no le bajamos más nunca paramos es otro palo y y dónde está mi gente mais fais bouger la tête azul are you with me say yeah yeah yeah un dos tres leggo' ay yeah yeah yeah he say my body stay wetter than the ocean and he say that creole in my body is like a potion i can be a beast or i can give you emotion but please don't question my devotion i been giving birth on these haters 'cause i'm fertile see these double cs on this bag murda want my double ds in his bed serta if you really love me make an album about me word up soon as i walk in boys start they talkin right as that booty sway freeze slay lift up your people from texas puerto rico dem' islands to méxico mais fais bouger la tête yeah yeah yeah y dónde está mi gente yeah yeah yeah say yeah yeah yeah un dos tres leggo' ay yeah yeah yeah esquina a esquina de ahí no' vamo' de ahí no' vamo' el mundo es grande pero lo tengo en mi' manos estoy muy duro sí ok ahí vamos y con el tiempo nos seguimos elevando que seguimos rompiendo aquí esta fiesta no tiene fin botellas para arriba sí mi gente no se detiene y dónde está mi gente mais fais bouger la tête azul are you with me say yeah yeah yeah un dos tres leggo' oh yes i am worldwide willy william j balvin man uh huh uh huh uh huh uh huh</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>['ES', 'EN']</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>J Balvin</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Mi Gen</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>si el ritmo te lleva a mover la cabeza ya empezamos cómo es mi música no discrimina a nadie así que vamos a romper con lo mío todos se mueven la fiesta la llevo en mis genes yo soy la reina de los nenes mi gente no se detiene aquí nadie se quiere ir si el ritmo está en tu cabeza ahora suéltate y mueve los pies me encanta cuando el bajo suena empezamos a subir de toda mi gente se mueve la fiesta la llevo en mis genes yo soy la reina de los nenes mi musica los tiene fuerte bailando y se baila así tamo' rompiendo la discoteca la fiesta no para apenas comienza c'est comme-ci c'est comme-ça ma chèrie la la la la la francia colombia houston freeze j balvin willy william beyoncé freeze los dj's no mienten le gusta a mi gente y eso se fue mundial freeze no le bajamos más nunca paramos es otro palo y y dónde está mi gente mais fais bouger la tête azul are you with me say yeah yeah yeah un dos tres leggo' ay yeah yeah yeah he say my body stay wetter than the ocean and he say that creole in my body is like a potion i can be a beast or i can give you emotion but please don't question my devotion i been giving birth on these haters 'cause i'm fertile see these double cs on this bag murda want my double ds in his bed serta if you really love me make an album about me word up soon as i walk in boys start they talkin right as that booty sway freeze slay lift up your people from texas puerto rico dem' islands to méxico mais fais bouger la tête yeah yeah yeah y dónde está mi gente yeah yeah yeah say yeah yeah yeah un dos tres leggo' ay yeah yeah yeah esquina a esquina de ahí no' vamo' de ahí no' vamo' el mundo es grande pero lo tengo en mi' manos estoy muy duro sí ok ahí vamos y con el tiempo nos seguimos elevando que seguimos rompiendo aquí esta fiesta no tiene fin botellas para arriba sí mi gente no se detiene y dónde está mi gente mais fais bouger la tête azul are you with me say yeah yeah yeah un dos tres leggo' oh yes i am worldwide willy william j balvin man uh huh uh huh uh huh uh huh</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
@@ -9081,13 +10833,13 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -9102,9 +10854,27 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9178,27 +10948,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>AR,EN</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>C'est La vie</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Khaled</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>on va s'aimer on va danser oui c'est la vie la la la la la redone on va s'aimer on va danser oui c'est la vie la la la la la on va s'aimer ouais on va danser oui c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la راني مانادم على ليام مهما تكوني بعيدة عليا راني مانادم على ليام هدروا أنا فيك وفيا أها إياه أها إياه لازم الجرح يبرى بالدوا أها إياه أها إياه السهرة تكون جميلة يا لحبيبة ولاي لاي للاه on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la جاني بشار بالخفية وقالي على لي بيا وقالي نتا نيا غير راهي نصرانية أها إياه أها إياه لازم الجرح يبرى بالدوا أها إياه أها إياه السهرة تكون جميلة يا لحبيبة ولاي لاي للاه on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la هذه ليلة وألف ليلة on va s'aimer pour toute la vie هذه ليلة وألف ليلة on va s'aimer danser c'est la-la-la c'est la vie on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la ouais on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>['AR', 'EN']</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>C'est La vie</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Khaled</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>on va s'aimer on va danser oui c'est la vie la la la la la redone on va s'aimer on va danser oui c'est la vie la la la la la on va s'aimer ouais on va danser oui c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la راني مانادم على ليام مهما تكوني بعيدة عليا راني مانادم على ليام هدروا أنا فيك وفيا أها إياه أها إياه لازم الجرح يبرى بالدوا أها إياه أها إياه السهرة تكون جميلة يا لحبيبة ولاي لاي للاه on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la جاني بشار بالخفية وقالي على لي بيا وقالي نتا نيا غير راهي نصرانية أها إياه أها إياه لازم الجرح يبرى بالدوا أها إياه أها إياه السهرة تكون جميلة يا لحبيبة ولاي لاي للاه on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la هذه ليلة وألف ليلة on va s'aimer pour toute la vie هذه ليلة وألف ليلة on va s'aimer danser c'est la-la-la c'est la vie on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la ouais on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la on va s'aimer on va danser c'est la vie la la la la la on va s'aimer on va danser oui c'est la vie la la la la la</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
@@ -9206,13 +10978,13 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -9227,9 +10999,27 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9294,41 +11084,43 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>PT, ES</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Corzan</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Maluma</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>alright alright baby tú me partiste el corazón maluma baby pero mi amor no hay problema no no rudeboyz ahora puedo regalar qué un pedacito a cada nena sólo un pedacito tú me partiste el corazón ay mi corazón pero mi amor no hay problema no no ahora puedo regalar ya qué ya qué un pedacito a cada nena sólo un pedacito ya no vengas más con esos cuentos mami si desde el principio siempre estuve pa' ti nunca me avisaron cuál era el problema te gusta estar rodando por camas ajena' ahora me tocó a mí cambiar el sistema andar con gatas nuevas repartir el corazón sin tanta pena ahora te digo goodbye muito obrigado pa' ti ya no hay uh woah uh woah uh woah uh woah uh woah uh woah no tengo miedo de decir adiós yo quiero repartir meu coração uh woah uh woah uh woah uh woah uh woah uh woah ahora te digo goodbye muito obrigado pa' ti ya no hay maluma baby você partiu meu coração aí meu coração mas meu amor não tem problema não não o que agora vai sobrar então que o que un pedacito a cada nena sólo un pedacito se eu não guardo nem dinheiro que dirá guardar rancor você vacilou primeiro nosso caso acabou uh woah uh woah uh woah uh woah uh woah uh woah no tengo miedo de decir adiós yo quiero repartir meu coração uh woah uh woah uh woah uh woah uh woah uh woah ahora te digo goodbye muito obrigado pa' ti ya no hay tú me partiste el corazón ay mi corazón pero mi amor no hay problema no no ahora puedo regalar ya qué ya qué un pedacito a cada nena sólo un pedacito tchau tchau eu não sei falar muito bem português mas quero aprender pretty boy baby dirty boy baby maluma baby muá tú me partiste el corazón maluma baby pero mi amor no hay problema rudeboyz sólo un pedacito maluma baby</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>['PT', 'ES']</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Corzan</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Maluma</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>alright alright baby tú me partiste el corazón maluma baby pero mi amor no hay problema no no rudeboyz ahora puedo regalar qué un pedacito a cada nena sólo un pedacito tú me partiste el corazón ay mi corazón pero mi amor no hay problema no no ahora puedo regalar ya qué ya qué un pedacito a cada nena sólo un pedacito ya no vengas más con esos cuentos mami si desde el principio siempre estuve pa' ti nunca me avisaron cuál era el problema te gusta estar rodando por camas ajena' ahora me tocó a mí cambiar el sistema andar con gatas nuevas repartir el corazón sin tanta pena ahora te digo goodbye muito obrigado pa' ti ya no hay uh woah uh woah uh woah uh woah uh woah uh woah no tengo miedo de decir adiós yo quiero repartir meu coração uh woah uh woah uh woah uh woah uh woah uh woah ahora te digo goodbye muito obrigado pa' ti ya no hay maluma baby você partiu meu coração aí meu coração mas meu amor não tem problema não não o que agora vai sobrar então que o que un pedacito a cada nena sólo un pedacito se eu não guardo nem dinheiro que dirá guardar rancor você vacilou primeiro nosso caso acabou uh woah uh woah uh woah uh woah uh woah uh woah no tengo miedo de decir adiós yo quiero repartir meu coração uh woah uh woah uh woah uh woah uh woah uh woah ahora te digo goodbye muito obrigado pa' ti ya no hay tú me partiste el corazón ay mi corazón pero mi amor no hay problema no no ahora puedo regalar ya qué ya qué un pedacito a cada nena sólo un pedacito tchau tchau eu não sei falar muito bem português mas quero aprender pretty boy baby dirty boy baby maluma baby muá tú me partiste el corazón maluma baby pero mi amor no hay problema rudeboyz sólo un pedacito maluma baby</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -9340,12 +11132,30 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
       </c>
       <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
         <v>0</v>
       </c>
     </row>
